--- a/Code/Results/Cases/Case_5_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.480439257652279</v>
+        <v>1.803710871419469</v>
       </c>
       <c r="C2">
-        <v>1.099802831508185</v>
+        <v>0.3493623000118191</v>
       </c>
       <c r="D2">
-        <v>0.0408648076134952</v>
+        <v>0.07712563801910477</v>
       </c>
       <c r="E2">
-        <v>1.449649357066221</v>
+        <v>0.01770314458834221</v>
       </c>
       <c r="F2">
-        <v>2.534863775611001</v>
+        <v>6.91708006718784</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.334890449696744</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1649211192051965</v>
       </c>
       <c r="K2">
-        <v>0.8274996833876287</v>
+        <v>0.4763030498567034</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.3914004135333258</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.132382408486308</v>
+        <v>1.561389244426323</v>
       </c>
       <c r="C3">
-        <v>0.9425278621507687</v>
+        <v>0.2990638101137506</v>
       </c>
       <c r="D3">
-        <v>0.03909600438020178</v>
+        <v>0.06619685025818711</v>
       </c>
       <c r="E3">
-        <v>1.233978834719409</v>
+        <v>0.01772890739257438</v>
       </c>
       <c r="F3">
-        <v>2.231270307950027</v>
+        <v>6.210183677702986</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.197416890507967</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1518327324858078</v>
       </c>
       <c r="K3">
-        <v>0.7106826596554399</v>
+        <v>0.4111609307271991</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3420760193044146</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.922532174876324</v>
+        <v>1.416824023799165</v>
       </c>
       <c r="C4">
-        <v>0.8481277631445607</v>
+        <v>0.269164437469783</v>
       </c>
       <c r="D4">
-        <v>0.03815187945565413</v>
+        <v>0.05964297193507662</v>
       </c>
       <c r="E4">
-        <v>1.105801171464961</v>
+        <v>0.01778510843620573</v>
       </c>
       <c r="F4">
-        <v>2.051527023858654</v>
+        <v>5.786223723210952</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.116599990081127</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1440243831455277</v>
       </c>
       <c r="K4">
-        <v>0.6403513139008297</v>
+        <v>0.3723309016688603</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3128238373692938</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.837822301753818</v>
+        <v>1.35884140963654</v>
       </c>
       <c r="C5">
-        <v>0.8101122688341604</v>
+        <v>0.2571945935243036</v>
       </c>
       <c r="D5">
-        <v>0.03779818943898761</v>
+        <v>0.05700506672072692</v>
       </c>
       <c r="E5">
-        <v>1.054453453414638</v>
+        <v>0.01781780445972192</v>
       </c>
       <c r="F5">
-        <v>1.979735554617037</v>
+        <v>5.615643337587386</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.084456746697271</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.140892982165866</v>
       </c>
       <c r="K5">
-        <v>0.6119822125368799</v>
+        <v>0.3567636689837457</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3011336357435397</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.823800508790583</v>
+        <v>1.349265920127323</v>
       </c>
       <c r="C6">
-        <v>0.8038247253827535</v>
+        <v>0.2552190579458511</v>
       </c>
       <c r="D6">
-        <v>0.03774121018394894</v>
+        <v>0.05656885103351073</v>
       </c>
       <c r="E6">
-        <v>1.045975832811493</v>
+        <v>0.01782381527931953</v>
       </c>
       <c r="F6">
-        <v>1.967896552181088</v>
+        <v>5.587441147346993</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.0791640473348</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1403758840706217</v>
       </c>
       <c r="K6">
-        <v>0.6072875469079619</v>
+        <v>0.3541932055406249</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.2992055904015984</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.921386688850532</v>
+        <v>1.41603845444638</v>
       </c>
       <c r="C7">
-        <v>0.8476133508439148</v>
+        <v>0.2690021810678331</v>
       </c>
       <c r="D7">
-        <v>0.03814698945771156</v>
+        <v>0.05960727131801491</v>
       </c>
       <c r="E7">
-        <v>1.105105314876241</v>
+        <v>0.01778551018157248</v>
       </c>
       <c r="F7">
-        <v>2.05055319983704</v>
+        <v>5.783914797120872</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.116163435525863</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1439819557033672</v>
       </c>
       <c r="K7">
-        <v>0.6399676113792125</v>
+        <v>0.372119965172061</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3126652835550345</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.359523318508593</v>
+        <v>1.719198011580886</v>
       </c>
       <c r="C8">
-        <v>1.045065808451511</v>
+        <v>0.3317940698704547</v>
       </c>
       <c r="D8">
-        <v>0.04022247725670525</v>
+        <v>0.07332081215727015</v>
       </c>
       <c r="E8">
-        <v>1.374287817360198</v>
+        <v>0.01770341662413788</v>
       </c>
       <c r="F8">
-        <v>2.428660762071019</v>
+        <v>6.671030506207927</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.286671769943467</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1603566416028954</v>
       </c>
       <c r="K8">
-        <v>0.7868937536773259</v>
+        <v>0.4535760456087914</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3741601655862539</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.257935085022325</v>
+        <v>2.353999436346044</v>
       </c>
       <c r="C9">
-        <v>1.454290923407882</v>
+        <v>0.4644457437554479</v>
       </c>
       <c r="D9">
-        <v>0.04566590641147883</v>
+        <v>0.1017854201528792</v>
       </c>
       <c r="E9">
-        <v>1.945577031538036</v>
+        <v>0.01788142728283582</v>
       </c>
       <c r="F9">
-        <v>3.234500296103079</v>
+        <v>8.508363000876727</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.655431858171298</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.194621663131457</v>
       </c>
       <c r="K9">
-        <v>1.08919129040784</v>
+        <v>0.6244918792864027</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5044670921390946</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.956237339171025</v>
+        <v>2.855987700268315</v>
       </c>
       <c r="C10">
-        <v>1.776441155432906</v>
+        <v>0.5704916327383671</v>
       </c>
       <c r="D10">
-        <v>0.05092352957938573</v>
+        <v>0.1241895112161728</v>
       </c>
       <c r="E10">
-        <v>2.408480849742062</v>
+        <v>0.01824894824905421</v>
       </c>
       <c r="F10">
-        <v>3.88482231080684</v>
+        <v>9.94634239439273</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.957072809293663</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2216649838796343</v>
       </c>
       <c r="K10">
-        <v>1.3251104942848</v>
+        <v>0.7599885117883787</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6085860881730767</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.286263412229289</v>
+        <v>3.09507711486566</v>
       </c>
       <c r="C11">
-        <v>1.929963107804269</v>
+        <v>0.6213625330192372</v>
       </c>
       <c r="D11">
-        <v>0.05371209811045219</v>
+        <v>0.1348490379383378</v>
       </c>
       <c r="E11">
-        <v>2.633384285538682</v>
+        <v>0.01847569530108295</v>
       </c>
       <c r="F11">
-        <v>4.198685073998263</v>
+        <v>10.62731668254014</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.103711526539598</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2345228479426922</v>
       </c>
       <c r="K11">
-        <v>1.436905253017585</v>
+        <v>0.8246301106678686</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.6584411237169618</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.413439391066049</v>
+        <v>3.187459646629634</v>
       </c>
       <c r="C12">
-        <v>1.989344962210794</v>
+        <v>0.6410820872121406</v>
       </c>
       <c r="D12">
-        <v>0.05483858731039248</v>
+        <v>0.1389672330614502</v>
       </c>
       <c r="E12">
-        <v>2.72115183074078</v>
+        <v>0.01857094425549199</v>
       </c>
       <c r="F12">
-        <v>4.320692943257001</v>
+        <v>10.8898114073433</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.160883302349163</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2394866739512764</v>
       </c>
       <c r="K12">
-        <v>1.480037240752935</v>
+        <v>0.8496257465883446</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.6777457407450669</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.385944070389939</v>
+        <v>3.167476006465506</v>
       </c>
       <c r="C13">
-        <v>1.976496111774793</v>
+        <v>0.63681346361696</v>
       </c>
       <c r="D13">
-        <v>0.05459259123227156</v>
+        <v>0.1380764179347835</v>
       </c>
       <c r="E13">
-        <v>2.702123698931842</v>
+        <v>0.01854999872291074</v>
       </c>
       <c r="F13">
-        <v>4.294265781168519</v>
+        <v>10.83305917708014</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.148492006807942</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2384131424804821</v>
       </c>
       <c r="K13">
-        <v>1.470709690078749</v>
+        <v>0.8442179596731592</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.6735680144722735</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.296679361399981</v>
+        <v>3.102638598133524</v>
       </c>
       <c r="C14">
-        <v>1.934821918270757</v>
+        <v>0.6229752409658431</v>
       </c>
       <c r="D14">
-        <v>0.05380327286943754</v>
+        <v>0.1351861163271337</v>
       </c>
       <c r="E14">
-        <v>2.640549242544651</v>
+        <v>0.01848333820599102</v>
       </c>
       <c r="F14">
-        <v>4.208655851640714</v>
+        <v>10.64881474184034</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.108380284253599</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2349292297818408</v>
       </c>
       <c r="K14">
-        <v>1.4404367543342</v>
+        <v>0.8266756065277008</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.6600203676052416</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.24230309588296</v>
+        <v>3.063173872117602</v>
       </c>
       <c r="C15">
-        <v>1.909465744887257</v>
+        <v>0.614560841509757</v>
       </c>
       <c r="D15">
-        <v>0.05332943141483071</v>
+        <v>0.1334268275829942</v>
       </c>
       <c r="E15">
-        <v>2.603190299596392</v>
+        <v>0.01844375561132239</v>
       </c>
       <c r="F15">
-        <v>4.156646898617538</v>
+        <v>10.536586920979</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.08403425253033</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2328080685010292</v>
       </c>
       <c r="K15">
-        <v>1.422002751542323</v>
+        <v>0.8160005637993635</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.6517796721671516</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.934952437328604</v>
+        <v>2.840603193515733</v>
       </c>
       <c r="C16">
-        <v>1.766568106267869</v>
+        <v>0.5672263481238531</v>
       </c>
       <c r="D16">
-        <v>0.05075035402483508</v>
+        <v>0.1235034752768911</v>
       </c>
       <c r="E16">
-        <v>2.394114463795887</v>
+        <v>0.01823539531305229</v>
       </c>
       <c r="F16">
-        <v>3.864718854556884</v>
+        <v>9.902441657643465</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.947702477280799</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2208370943412632</v>
       </c>
       <c r="K16">
-        <v>1.317906933114799</v>
+        <v>0.7558314325589777</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6053835663475908</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.749844703220276</v>
+        <v>2.70701069767847</v>
       </c>
       <c r="C17">
-        <v>1.680848658114712</v>
+        <v>0.5389128156053005</v>
       </c>
       <c r="D17">
-        <v>0.04927842831830276</v>
+        <v>0.1175451381305805</v>
       </c>
       <c r="E17">
-        <v>2.269867853781065</v>
+        <v>0.01812336949356386</v>
       </c>
       <c r="F17">
-        <v>3.69061264854426</v>
+        <v>9.520792418769531</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.866667126144421</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2136454840543038</v>
       </c>
       <c r="K17">
-        <v>1.255293374484239</v>
+        <v>0.7197451117001066</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.577603431916792</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.64450952328815</v>
+        <v>2.63116123038202</v>
       </c>
       <c r="C18">
-        <v>1.632184272445897</v>
+        <v>0.522869793685004</v>
       </c>
       <c r="D18">
-        <v>0.04846820283237463</v>
+        <v>0.1141611006208052</v>
       </c>
       <c r="E18">
-        <v>2.199713881826696</v>
+        <v>0.01806448484074075</v>
       </c>
       <c r="F18">
-        <v>3.592128574089827</v>
+        <v>9.303750599367675</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.82092413211835</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2095603421406196</v>
       </c>
       <c r="K18">
-        <v>1.219689902477398</v>
+        <v>0.6992660207865313</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.5618548221120605</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.609028060960725</v>
+        <v>2.605641476731137</v>
       </c>
       <c r="C19">
-        <v>1.615810535146977</v>
+        <v>0.517477349912582</v>
       </c>
       <c r="D19">
-        <v>0.04819976407491566</v>
+        <v>0.1130223156574601</v>
       </c>
       <c r="E19">
-        <v>2.176171422826656</v>
+        <v>0.01804547784910682</v>
       </c>
       <c r="F19">
-        <v>3.559052893162885</v>
+        <v>9.230667330996511</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.805577309394792</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2081855757004831</v>
       </c>
       <c r="K19">
-        <v>1.207701439726122</v>
+        <v>0.6923773281822747</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.5565602101702822</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.76942959069703</v>
+        <v>2.72112742868768</v>
       </c>
       <c r="C20">
-        <v>1.689905889514762</v>
+        <v>0.541901256885069</v>
       </c>
       <c r="D20">
-        <v>0.04943126396145203</v>
+        <v>0.1181748621341256</v>
       </c>
       <c r="E20">
-        <v>2.282955095479082</v>
+        <v>0.01813471495857044</v>
       </c>
       <c r="F20">
-        <v>3.708971331228298</v>
+        <v>9.561158564309579</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.875201910478623</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.214405635482251</v>
       </c>
       <c r="K20">
-        <v>1.261915226098537</v>
+        <v>0.7235573421680499</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.5805364407484106</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.322834962359593</v>
+        <v>3.121630190094834</v>
       </c>
       <c r="C21">
-        <v>1.947026598316143</v>
+        <v>0.6270268008653943</v>
       </c>
       <c r="D21">
-        <v>0.05403307724154871</v>
+        <v>0.1360327245272117</v>
       </c>
       <c r="E21">
-        <v>2.658559547187977</v>
+        <v>0.0185026560802708</v>
       </c>
       <c r="F21">
-        <v>4.233710854276552</v>
+        <v>10.70279953063857</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.120114875599569</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2359498341130504</v>
       </c>
       <c r="K21">
-        <v>1.449305599744349</v>
+        <v>0.8318134262388384</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.6639874923197553</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.697622631113404</v>
+        <v>3.394314015312489</v>
       </c>
       <c r="C22">
-        <v>2.122490794435407</v>
+        <v>0.6853653116189093</v>
       </c>
       <c r="D22">
-        <v>0.05746051672519314</v>
+        <v>0.1481884568542426</v>
       </c>
       <c r="E22">
-        <v>2.919562529410442</v>
+        <v>0.01879831643804941</v>
       </c>
       <c r="F22">
-        <v>4.595403293698041</v>
+        <v>11.47633918242747</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.289938004222918</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2505918388194885</v>
       </c>
       <c r="K22">
-        <v>1.576524032577979</v>
+        <v>0.9056313651368839</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7210487628617059</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.496226671491115</v>
+        <v>3.247663181469136</v>
       </c>
       <c r="C23">
-        <v>2.02806762963786</v>
+        <v>0.6539519712754043</v>
       </c>
       <c r="D23">
-        <v>0.05558744295552742</v>
+        <v>0.1416509387758254</v>
       </c>
       <c r="E23">
-        <v>2.77862259195426</v>
+        <v>0.01863515787280967</v>
       </c>
       <c r="F23">
-        <v>4.400426674635412</v>
+        <v>11.06068947541263</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.198294884575532</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2427201134539416</v>
       </c>
       <c r="K23">
-        <v>1.508130332782287</v>
+        <v>0.8659204067281223</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.6903378535994094</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.760571912067917</v>
+        <v>2.714742303143055</v>
       </c>
       <c r="C24">
-        <v>1.685809211438709</v>
+        <v>0.5405494568834968</v>
       </c>
       <c r="D24">
-        <v>0.04936205579196695</v>
+        <v>0.1178900357321169</v>
       </c>
       <c r="E24">
-        <v>2.277034414711409</v>
+        <v>0.01812956853882142</v>
       </c>
       <c r="F24">
-        <v>3.700666390889836</v>
+        <v>9.542901693392281</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.871340722447485</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2140618182089256</v>
       </c>
       <c r="K24">
-        <v>1.258920271279308</v>
+        <v>0.7218330060726075</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.579209739162124</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.009357810079223</v>
+        <v>2.17691145710188</v>
       </c>
       <c r="C25">
-        <v>1.340478941344372</v>
+        <v>0.4272789965678783</v>
       </c>
       <c r="D25">
-        <v>0.04400768855101944</v>
+        <v>0.09386617579224321</v>
       </c>
       <c r="E25">
-        <v>1.784852972573788</v>
+        <v>0.01779413635464611</v>
       </c>
       <c r="F25">
-        <v>3.007834211701493</v>
+        <v>7.998149757233023</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.551081933437388</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1850687358585645</v>
       </c>
       <c r="K25">
-        <v>1.005412652624216</v>
+        <v>0.5767641423531984</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0.4679431948958879</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.803710871419469</v>
+        <v>2.636061762082988</v>
       </c>
       <c r="C2">
-        <v>0.3493623000118191</v>
+        <v>0.792762075096249</v>
       </c>
       <c r="D2">
-        <v>0.07712563801910477</v>
+        <v>0.07196486469264229</v>
       </c>
       <c r="E2">
-        <v>0.01770314458834221</v>
+        <v>0.03501750847532037</v>
       </c>
       <c r="F2">
-        <v>6.91708006718784</v>
+        <v>2.605674773320516</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.588044082112404</v>
       </c>
       <c r="J2">
-        <v>0.1649211192051965</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4763030498567034</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1801725634198874</v>
       </c>
       <c r="M2">
-        <v>0.3914004135333258</v>
+        <v>0.4518392057320568</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.561389244426323</v>
+        <v>2.279287201464285</v>
       </c>
       <c r="C3">
-        <v>0.2990638101137506</v>
+        <v>0.6832900186259963</v>
       </c>
       <c r="D3">
-        <v>0.06619685025818711</v>
+        <v>0.07207703343822658</v>
       </c>
       <c r="E3">
-        <v>0.01772890739257438</v>
+        <v>0.03379997986576111</v>
       </c>
       <c r="F3">
-        <v>6.210183677702986</v>
+        <v>2.355887278132357</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,19 +489,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.473965314596498</v>
       </c>
       <c r="J3">
-        <v>0.1518327324858078</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4111609307271991</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1632222267547689</v>
       </c>
       <c r="M3">
-        <v>0.3420760193044146</v>
+        <v>0.3931543847428358</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.416824023799165</v>
+        <v>2.063767203990437</v>
       </c>
       <c r="C4">
-        <v>0.269164437469783</v>
+        <v>0.6170774378125259</v>
       </c>
       <c r="D4">
-        <v>0.05964297193507662</v>
+        <v>0.07224804380620498</v>
       </c>
       <c r="E4">
-        <v>0.01778510843620573</v>
+        <v>0.03305960446272049</v>
       </c>
       <c r="F4">
-        <v>5.786223723210952</v>
+        <v>2.207790029026867</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,19 +536,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.407015086722325</v>
       </c>
       <c r="J4">
-        <v>0.1440243831455277</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3723309016688603</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1531193148512173</v>
       </c>
       <c r="M4">
-        <v>0.3128238373692938</v>
+        <v>0.3577903533306852</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.35884140963654</v>
+        <v>1.97670892212119</v>
       </c>
       <c r="C5">
-        <v>0.2571945935243036</v>
+        <v>0.5903048012171439</v>
       </c>
       <c r="D5">
-        <v>0.05700506672072692</v>
+        <v>0.07234145392255087</v>
       </c>
       <c r="E5">
-        <v>0.01781780445972192</v>
+        <v>0.03275908297010499</v>
       </c>
       <c r="F5">
-        <v>5.615643337587386</v>
+        <v>2.148626933591501</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.380436476850079</v>
       </c>
       <c r="J5">
-        <v>0.140892982165866</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3567636689837457</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1490716279822664</v>
       </c>
       <c r="M5">
-        <v>0.3011336357435397</v>
+        <v>0.3435263435822407</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.349265920127323</v>
+        <v>1.962295961733844</v>
       </c>
       <c r="C6">
-        <v>0.2552190579458511</v>
+        <v>0.5858707008646604</v>
       </c>
       <c r="D6">
-        <v>0.05656885103351073</v>
+        <v>0.07235834342248282</v>
       </c>
       <c r="E6">
-        <v>0.01782381527931953</v>
+        <v>0.03270923642570178</v>
       </c>
       <c r="F6">
-        <v>5.587441147346993</v>
+        <v>2.138870863297726</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,19 +630,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.376063602352474</v>
       </c>
       <c r="J6">
-        <v>0.1403758840706217</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3541932055406249</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1484034989426775</v>
       </c>
       <c r="M6">
-        <v>0.2992055904015984</v>
+        <v>0.3411661215777286</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.41603845444638</v>
+        <v>2.062590150534334</v>
       </c>
       <c r="C7">
-        <v>0.2690021810678331</v>
+        <v>0.616715578123177</v>
       </c>
       <c r="D7">
-        <v>0.05960727131801491</v>
+        <v>0.07224920997866846</v>
       </c>
       <c r="E7">
-        <v>0.01778551018157248</v>
+        <v>0.03305554748924067</v>
       </c>
       <c r="F7">
-        <v>5.783914797120872</v>
+        <v>2.206987499908877</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.406653880477478</v>
       </c>
       <c r="J7">
-        <v>0.1439819557033672</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.372119965172061</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1530644547822533</v>
       </c>
       <c r="M7">
-        <v>0.3126652835550345</v>
+        <v>0.3575974146698258</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.719198011580886</v>
+        <v>2.512233557285185</v>
       </c>
       <c r="C8">
-        <v>0.3317940698704547</v>
+        <v>0.7547806993791539</v>
       </c>
       <c r="D8">
-        <v>0.07332081215727015</v>
+        <v>0.07198110195609786</v>
       </c>
       <c r="E8">
-        <v>0.01770341662413788</v>
+        <v>0.03459581609130602</v>
       </c>
       <c r="F8">
-        <v>6.671030506207927</v>
+        <v>2.518366457286206</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.548020833815229</v>
       </c>
       <c r="J8">
-        <v>0.1603566416028954</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4535760456087914</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1742602704847087</v>
       </c>
       <c r="M8">
-        <v>0.3741601655862539</v>
+        <v>0.4314526237029241</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.353999436346044</v>
+        <v>3.428281010849787</v>
       </c>
       <c r="C9">
-        <v>0.4644457437554479</v>
+        <v>1.035662835678835</v>
       </c>
       <c r="D9">
-        <v>0.1017854201528792</v>
+        <v>0.07236500823779579</v>
       </c>
       <c r="E9">
-        <v>0.01788142728283582</v>
+        <v>0.03770546989616896</v>
       </c>
       <c r="F9">
-        <v>8.508363000876727</v>
+        <v>3.17777201457514</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.853510568971302</v>
       </c>
       <c r="J9">
-        <v>0.194621663131457</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6244918792864027</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2186082783556458</v>
       </c>
       <c r="M9">
-        <v>0.5044670921390946</v>
+        <v>0.5826503668506149</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.855987700268315</v>
+        <v>4.132033608013046</v>
       </c>
       <c r="C10">
-        <v>0.5704916327383671</v>
+        <v>1.251659605751001</v>
       </c>
       <c r="D10">
-        <v>0.1241895112161728</v>
+        <v>0.07335954212558704</v>
       </c>
       <c r="E10">
-        <v>0.01824894824905421</v>
+        <v>0.04009683345943671</v>
       </c>
       <c r="F10">
-        <v>9.94634239439273</v>
+        <v>3.702933076898262</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.101033367889542</v>
       </c>
       <c r="J10">
-        <v>0.2216649838796343</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7599885117883787</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2534623581403821</v>
       </c>
       <c r="M10">
-        <v>0.6085860881730767</v>
+        <v>0.6992967761254434</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.09507711486566</v>
+        <v>4.461435449127123</v>
       </c>
       <c r="C11">
-        <v>0.6213625330192372</v>
+        <v>1.352923995148444</v>
       </c>
       <c r="D11">
-        <v>0.1348490379383378</v>
+        <v>0.07400870995828512</v>
       </c>
       <c r="E11">
-        <v>0.01847569530108295</v>
+        <v>0.04122218202621308</v>
       </c>
       <c r="F11">
-        <v>10.62731668254014</v>
+        <v>3.953538332790458</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.220174289305064</v>
       </c>
       <c r="J11">
-        <v>0.2345228479426922</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8246301106678686</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2699609491939015</v>
       </c>
       <c r="M11">
-        <v>0.6584411237169618</v>
+        <v>0.7540088045297964</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.187459646629634</v>
+        <v>4.58775398013546</v>
       </c>
       <c r="C12">
-        <v>0.6410820872121406</v>
+        <v>1.391791864666118</v>
       </c>
       <c r="D12">
-        <v>0.1389672330614502</v>
+        <v>0.07428701041845187</v>
       </c>
       <c r="E12">
-        <v>0.01857094425549199</v>
+        <v>0.04165516312594786</v>
       </c>
       <c r="F12">
-        <v>10.8898114073433</v>
+        <v>4.050398380640985</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.266379273813797</v>
       </c>
       <c r="J12">
-        <v>0.2394866739512764</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8496257465883446</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2763155068680874</v>
       </c>
       <c r="M12">
-        <v>0.6777457407450669</v>
+        <v>0.7750066700896809</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.167476006465506</v>
+        <v>4.560474334087644</v>
       </c>
       <c r="C13">
-        <v>0.63681346361696</v>
+        <v>1.383396229580171</v>
       </c>
       <c r="D13">
-        <v>0.1380764179347835</v>
+        <v>0.07422555532908603</v>
       </c>
       <c r="E13">
-        <v>0.01854999872291074</v>
+        <v>0.04156158313957103</v>
       </c>
       <c r="F13">
-        <v>10.83305917708014</v>
+        <v>4.029445748399979</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.256377182503925</v>
       </c>
       <c r="J13">
-        <v>0.2384131424804821</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8442179596731592</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.274941933806744</v>
       </c>
       <c r="M13">
-        <v>0.6735680144722735</v>
+        <v>0.7704712255445756</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.102638598133524</v>
+        <v>4.47179450186286</v>
       </c>
       <c r="C14">
-        <v>0.6229752409658431</v>
+        <v>1.356110674157605</v>
       </c>
       <c r="D14">
-        <v>0.1351861163271337</v>
+        <v>0.07403092872976913</v>
       </c>
       <c r="E14">
-        <v>0.01848333820599102</v>
+        <v>0.04125765746384769</v>
       </c>
       <c r="F14">
-        <v>10.64881474184034</v>
+        <v>3.961466024736353</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.223952852230724</v>
       </c>
       <c r="J14">
-        <v>0.2349292297818408</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8266756065277008</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2704815103938074</v>
       </c>
       <c r="M14">
-        <v>0.6600203676052416</v>
+        <v>0.7557304424909432</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.063173872117602</v>
+        <v>4.417689486600466</v>
       </c>
       <c r="C15">
-        <v>0.614560841509757</v>
+        <v>1.339468233047967</v>
       </c>
       <c r="D15">
-        <v>0.1334268275829942</v>
+        <v>0.07391607891022289</v>
       </c>
       <c r="E15">
-        <v>0.01844375561132239</v>
+        <v>0.04107243160575891</v>
       </c>
       <c r="F15">
-        <v>10.536586920979</v>
+        <v>3.920090828610626</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.204238584928078</v>
       </c>
       <c r="J15">
-        <v>0.2328080685010292</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8160005637993635</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2677637552255447</v>
       </c>
       <c r="M15">
-        <v>0.6517796721671516</v>
+        <v>0.7467390658168824</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.840603193515733</v>
+        <v>4.11071330030893</v>
       </c>
       <c r="C16">
-        <v>0.5672263481238531</v>
+        <v>1.245109540328656</v>
       </c>
       <c r="D16">
-        <v>0.1235034752768911</v>
+        <v>0.07332141943766146</v>
       </c>
       <c r="E16">
-        <v>0.01823539531305229</v>
+        <v>0.04002416172162349</v>
       </c>
       <c r="F16">
-        <v>9.902441657643465</v>
+        <v>3.686813866141193</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.093391059271738</v>
       </c>
       <c r="J16">
-        <v>0.2208370943412632</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7558314325589777</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2523982669802791</v>
       </c>
       <c r="M16">
-        <v>0.6053835663475908</v>
+        <v>0.6957578941775964</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.70701069767847</v>
+        <v>3.924931925881538</v>
       </c>
       <c r="C17">
-        <v>0.5389128156053005</v>
+        <v>1.188052785303228</v>
       </c>
       <c r="D17">
-        <v>0.1175451381305805</v>
+        <v>0.07300978448043338</v>
       </c>
       <c r="E17">
-        <v>0.01812336949356386</v>
+        <v>0.03939163889376829</v>
       </c>
       <c r="F17">
-        <v>9.520792418769531</v>
+        <v>3.546890017266321</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.027164187906308</v>
       </c>
       <c r="J17">
-        <v>0.2136454840543038</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7197451117001066</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2431464365851497</v>
       </c>
       <c r="M17">
-        <v>0.577603431916792</v>
+        <v>0.6649333273118998</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.63116123038202</v>
+        <v>3.818930229963883</v>
       </c>
       <c r="C18">
-        <v>0.522869793685004</v>
+        <v>1.155512185106886</v>
       </c>
       <c r="D18">
-        <v>0.1141611006208052</v>
+        <v>0.0728487738767214</v>
       </c>
       <c r="E18">
-        <v>0.01806448484074075</v>
+        <v>0.03903125899178228</v>
       </c>
       <c r="F18">
-        <v>9.303750599367675</v>
+        <v>3.467492648440356</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.989677952039273</v>
       </c>
       <c r="J18">
-        <v>0.2095603421406196</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6992660207865313</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2378846089053042</v>
       </c>
       <c r="M18">
-        <v>0.5618548221120605</v>
+        <v>0.6473561915813733</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.605641476731137</v>
+        <v>3.783179664475028</v>
       </c>
       <c r="C19">
-        <v>0.517477349912582</v>
+        <v>1.144539561117995</v>
       </c>
       <c r="D19">
-        <v>0.1130223156574601</v>
+        <v>0.07279727298894301</v>
       </c>
       <c r="E19">
-        <v>0.01804547784910682</v>
+        <v>0.03890978972169901</v>
       </c>
       <c r="F19">
-        <v>9.230667330996511</v>
+        <v>3.440788254500291</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.977085605272649</v>
       </c>
       <c r="J19">
-        <v>0.2081855757004831</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6923773281822747</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2361128703865916</v>
       </c>
       <c r="M19">
-        <v>0.5565602101702822</v>
+        <v>0.6414298413430188</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.72112742868768</v>
+        <v>3.944618503895015</v>
       </c>
       <c r="C20">
-        <v>0.541901256885069</v>
+        <v>1.19409730987735</v>
       </c>
       <c r="D20">
-        <v>0.1181748621341256</v>
+        <v>0.07304104320461846</v>
       </c>
       <c r="E20">
-        <v>0.01813471495857044</v>
+        <v>0.03945860731776474</v>
       </c>
       <c r="F20">
-        <v>9.561158564309579</v>
+        <v>3.561671162254214</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.03415045538344</v>
       </c>
       <c r="J20">
-        <v>0.214405635482251</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7235573421680499</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2441250453541528</v>
       </c>
       <c r="M20">
-        <v>0.5805364407484106</v>
+        <v>0.6681985997511859</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.121630190094834</v>
+        <v>4.497796835054544</v>
       </c>
       <c r="C21">
-        <v>0.6270268008653943</v>
+        <v>1.364110180949297</v>
       </c>
       <c r="D21">
-        <v>0.1360327245272117</v>
+        <v>0.07408717727773961</v>
       </c>
       <c r="E21">
-        <v>0.0185026560802708</v>
+        <v>0.04134672950742502</v>
       </c>
       <c r="F21">
-        <v>10.70279953063857</v>
+        <v>3.981377673685159</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.233445823249738</v>
       </c>
       <c r="J21">
-        <v>0.2359498341130504</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8318134262388384</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2717886188804357</v>
       </c>
       <c r="M21">
-        <v>0.6639874923197553</v>
+        <v>0.7600522100986282</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.394314015312489</v>
+        <v>4.86869074563873</v>
       </c>
       <c r="C22">
-        <v>0.6853653116189093</v>
+        <v>1.478313130062077</v>
       </c>
       <c r="D22">
-        <v>0.1481884568542426</v>
+        <v>0.07496262176841384</v>
       </c>
       <c r="E22">
-        <v>0.01879831643804941</v>
+        <v>0.04262143625286807</v>
       </c>
       <c r="F22">
-        <v>11.47633918242747</v>
+        <v>4.267271512422667</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.370128899588579</v>
       </c>
       <c r="J22">
-        <v>0.2505918388194885</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9056313651368839</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2904996635304968</v>
       </c>
       <c r="M22">
-        <v>0.7210487628617059</v>
+        <v>0.821738000185249</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.247663181469136</v>
+        <v>4.669788950975544</v>
       </c>
       <c r="C23">
-        <v>0.6539519712754043</v>
+        <v>1.417045120715443</v>
       </c>
       <c r="D23">
-        <v>0.1416509387758254</v>
+        <v>0.07447627402587642</v>
       </c>
       <c r="E23">
-        <v>0.01863515787280967</v>
+        <v>0.0419368302833707</v>
       </c>
       <c r="F23">
-        <v>11.06068947541263</v>
+        <v>4.113521245017125</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.296535246545403</v>
       </c>
       <c r="J23">
-        <v>0.2427201134539416</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8659204067281223</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2804501603937268</v>
       </c>
       <c r="M23">
-        <v>0.6903378535994094</v>
+        <v>0.7886480760047831</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.714742303143055</v>
+        <v>3.93571570830261</v>
       </c>
       <c r="C24">
-        <v>0.5405494568834968</v>
+        <v>1.191363770508531</v>
       </c>
       <c r="D24">
-        <v>0.1178900357321169</v>
+        <v>0.073026854902011</v>
       </c>
       <c r="E24">
-        <v>0.01812956853882142</v>
+        <v>0.03942832082605108</v>
       </c>
       <c r="F24">
-        <v>9.542901693392281</v>
+        <v>3.554985366790248</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.030990141814826</v>
       </c>
       <c r="J24">
-        <v>0.2140618182089256</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7218330060726075</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2436824393099215</v>
       </c>
       <c r="M24">
-        <v>0.579209739162124</v>
+        <v>0.6667219236910356</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.17691145710188</v>
+        <v>3.17585289010583</v>
       </c>
       <c r="C25">
-        <v>0.4272789965678783</v>
+        <v>0.9582615563294326</v>
       </c>
       <c r="D25">
-        <v>0.09386617579224321</v>
+        <v>0.07214873133604272</v>
       </c>
       <c r="E25">
-        <v>0.01779413635464611</v>
+        <v>0.03684974829593735</v>
       </c>
       <c r="F25">
-        <v>7.998149757233023</v>
+        <v>2.993111152555429</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.767280006664166</v>
       </c>
       <c r="J25">
-        <v>0.1850687358585645</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5767641423531984</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2062577417690505</v>
       </c>
       <c r="M25">
-        <v>0.4679431948958879</v>
+        <v>0.5409046021584061</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.636061762082988</v>
+        <v>1.470157689643315</v>
       </c>
       <c r="C2">
-        <v>0.792762075096249</v>
+        <v>0.2339133357980074</v>
       </c>
       <c r="D2">
-        <v>0.07196486469264229</v>
+        <v>0.1075226812808836</v>
       </c>
       <c r="E2">
-        <v>0.03501750847532037</v>
+        <v>0.05439836397515307</v>
       </c>
       <c r="F2">
-        <v>2.605674773320516</v>
+        <v>2.312878378896968</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.588044082112404</v>
+        <v>1.736421287184186</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1801725634198874</v>
+        <v>0.2243747179935482</v>
       </c>
       <c r="M2">
-        <v>0.4518392057320568</v>
+        <v>0.3159931720355544</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.279287201464285</v>
+        <v>1.386189995712527</v>
       </c>
       <c r="C3">
-        <v>0.6832900186259963</v>
+        <v>0.2037510629317296</v>
       </c>
       <c r="D3">
-        <v>0.07207703343822658</v>
+        <v>0.1076720869940289</v>
       </c>
       <c r="E3">
-        <v>0.03379997986576111</v>
+        <v>0.05394962065764108</v>
       </c>
       <c r="F3">
-        <v>2.355887278132357</v>
+        <v>2.25933059293196</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.473965314596498</v>
+        <v>1.71430840627103</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1632222267547689</v>
+        <v>0.2214141773817389</v>
       </c>
       <c r="M3">
-        <v>0.3931543847428358</v>
+        <v>0.3028853873112851</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.063767203990437</v>
+        <v>1.335603170011154</v>
       </c>
       <c r="C4">
-        <v>0.6170774378125259</v>
+        <v>0.1852597149889164</v>
       </c>
       <c r="D4">
-        <v>0.07224804380620498</v>
+        <v>0.1077912464957294</v>
       </c>
       <c r="E4">
-        <v>0.03305960446272049</v>
+        <v>0.05366683351482848</v>
       </c>
       <c r="F4">
-        <v>2.207790029026867</v>
+        <v>2.227720188075978</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.407015086722325</v>
+        <v>1.701542869023527</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1531193148512173</v>
+        <v>0.2197126688249611</v>
       </c>
       <c r="M4">
-        <v>0.3577903533306852</v>
+        <v>0.2950430642277766</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.97670892212119</v>
+        <v>1.315231812445006</v>
       </c>
       <c r="C5">
-        <v>0.5903048012171439</v>
+        <v>0.1777308649235749</v>
       </c>
       <c r="D5">
-        <v>0.07234145392255087</v>
+        <v>0.1078466504850795</v>
       </c>
       <c r="E5">
-        <v>0.03275908297010499</v>
+        <v>0.05354975700495768</v>
       </c>
       <c r="F5">
-        <v>2.148626933591501</v>
+        <v>2.215155243583865</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.380436476850079</v>
+        <v>1.696543617103487</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1490716279822664</v>
+        <v>0.2190484816087874</v>
       </c>
       <c r="M5">
-        <v>0.3435263435822407</v>
+        <v>0.2918989163573613</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.962295961733844</v>
+        <v>1.311863833676057</v>
       </c>
       <c r="C6">
-        <v>0.5858707008646604</v>
+        <v>0.1764810812508131</v>
       </c>
       <c r="D6">
-        <v>0.07235834342248282</v>
+        <v>0.1078562622546357</v>
       </c>
       <c r="E6">
-        <v>0.03270923642570178</v>
+        <v>0.05353020510589612</v>
       </c>
       <c r="F6">
-        <v>2.138870863297726</v>
+        <v>2.213087895109055</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.376063602352474</v>
+        <v>1.695725705140944</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1484034989426775</v>
+        <v>0.218939955574541</v>
       </c>
       <c r="M6">
-        <v>0.3411661215777286</v>
+        <v>0.2913799500532264</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.062590150534334</v>
+        <v>1.335327450952889</v>
       </c>
       <c r="C7">
-        <v>0.616715578123177</v>
+        <v>0.1851581526715051</v>
       </c>
       <c r="D7">
-        <v>0.07224920997866846</v>
+        <v>0.1077919660427007</v>
       </c>
       <c r="E7">
-        <v>0.03305554748924067</v>
+        <v>0.05366526204123101</v>
       </c>
       <c r="F7">
-        <v>2.206987499908877</v>
+        <v>2.22754945423722</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.406653880477478</v>
+        <v>1.701474627992269</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1530644547822533</v>
+        <v>0.219703593229859</v>
       </c>
       <c r="M7">
-        <v>0.3575974146698258</v>
+        <v>0.2950004521198721</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.512233557285185</v>
+        <v>1.441003940587848</v>
       </c>
       <c r="C8">
-        <v>0.7547806993791539</v>
+        <v>0.223507103662314</v>
       </c>
       <c r="D8">
-        <v>0.07198110195609786</v>
+        <v>0.1075684741533998</v>
       </c>
       <c r="E8">
-        <v>0.03459581609130602</v>
+        <v>0.05424513512333995</v>
       </c>
       <c r="F8">
-        <v>2.518366457286206</v>
+        <v>2.294150467946096</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.548020833815229</v>
+        <v>1.728627446223825</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1742602704847087</v>
+        <v>0.2233297603924953</v>
       </c>
       <c r="M8">
-        <v>0.4314526237029241</v>
+        <v>0.3114307952182003</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.428281010849787</v>
+        <v>1.655972928618723</v>
       </c>
       <c r="C9">
-        <v>1.035662835678835</v>
+        <v>0.2989665458969455</v>
       </c>
       <c r="D9">
-        <v>0.07236500823779579</v>
+        <v>0.1073500978286717</v>
       </c>
       <c r="E9">
-        <v>0.03770546989616896</v>
+        <v>0.05532533564858788</v>
       </c>
       <c r="F9">
-        <v>3.17777201457514</v>
+        <v>2.434931384048838</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.853510568971302</v>
+        <v>1.788380427314394</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2186082783556458</v>
+        <v>0.2313660915368416</v>
       </c>
       <c r="M9">
-        <v>0.5826503668506149</v>
+        <v>0.3452920438299927</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.132033608013046</v>
+        <v>1.818709298254589</v>
       </c>
       <c r="C10">
-        <v>1.251659605751001</v>
+        <v>0.3546131732749132</v>
       </c>
       <c r="D10">
-        <v>0.07335954212558704</v>
+        <v>0.1073269170639364</v>
       </c>
       <c r="E10">
-        <v>0.04009683345943671</v>
+        <v>0.05608520853995547</v>
       </c>
       <c r="F10">
-        <v>3.702933076898262</v>
+        <v>2.544738275459451</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.101033367889542</v>
+        <v>1.83634290636077</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2534623581403821</v>
+        <v>0.2378395095866921</v>
       </c>
       <c r="M10">
-        <v>0.6992967761254434</v>
+        <v>0.371184524829907</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.461435449127123</v>
+        <v>1.893803776385084</v>
       </c>
       <c r="C11">
-        <v>1.352923995148444</v>
+        <v>0.3799843339745053</v>
       </c>
       <c r="D11">
-        <v>0.07400870995828512</v>
+        <v>0.1073468735176775</v>
       </c>
       <c r="E11">
-        <v>0.04122218202621308</v>
+        <v>0.05642377703135537</v>
       </c>
       <c r="F11">
-        <v>3.953538332790458</v>
+        <v>2.596114556266656</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.220174289305064</v>
+        <v>1.85906536543007</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2699609491939015</v>
+        <v>0.2409091785256265</v>
       </c>
       <c r="M11">
-        <v>0.7540088045297964</v>
+        <v>0.3831873330131685</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.58775398013546</v>
+        <v>1.922394475568751</v>
       </c>
       <c r="C12">
-        <v>1.391791864666118</v>
+        <v>0.3896007724806054</v>
       </c>
       <c r="D12">
-        <v>0.07428701041845187</v>
+        <v>0.1073588733540234</v>
       </c>
       <c r="E12">
-        <v>0.04165516312594786</v>
+        <v>0.05655097919180019</v>
       </c>
       <c r="F12">
-        <v>4.050398380640985</v>
+        <v>2.615777120314391</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.266379273813797</v>
+        <v>1.867801379878301</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2763155068680874</v>
+        <v>0.2420896178969656</v>
       </c>
       <c r="M12">
-        <v>0.7750066700896809</v>
+        <v>0.3877649369682601</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.560474334087644</v>
+        <v>1.916230090374938</v>
       </c>
       <c r="C13">
-        <v>1.383396229580171</v>
+        <v>0.3875292919018989</v>
       </c>
       <c r="D13">
-        <v>0.07422555532908603</v>
+        <v>0.1073560904747168</v>
       </c>
       <c r="E13">
-        <v>0.04156158313957103</v>
+        <v>0.05652362845149117</v>
       </c>
       <c r="F13">
-        <v>4.029445748399979</v>
+        <v>2.611533165379427</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.256377182503925</v>
+        <v>1.86591404969495</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.274941933806744</v>
+        <v>0.2418345865510645</v>
       </c>
       <c r="M13">
-        <v>0.7704712255445756</v>
+        <v>0.3867776243353234</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.47179450186286</v>
+        <v>1.8961528575839</v>
       </c>
       <c r="C14">
-        <v>1.356110674157605</v>
+        <v>0.3807753011143973</v>
       </c>
       <c r="D14">
-        <v>0.07403092872976913</v>
+        <v>0.1073477713861308</v>
       </c>
       <c r="E14">
-        <v>0.04125765746384769</v>
+        <v>0.05643426211327984</v>
       </c>
       <c r="F14">
-        <v>3.961466024736353</v>
+        <v>2.597728033850444</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.223952852230724</v>
+        <v>1.859781438224303</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2704815103938074</v>
+        <v>0.2410059324083846</v>
       </c>
       <c r="M14">
-        <v>0.7557304424909432</v>
+        <v>0.3835632849214292</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.417689486600466</v>
+        <v>1.883875062757284</v>
       </c>
       <c r="C15">
-        <v>1.339468233047967</v>
+        <v>0.3766394707894847</v>
       </c>
       <c r="D15">
-        <v>0.07391607891022289</v>
+        <v>0.1073432559706262</v>
       </c>
       <c r="E15">
-        <v>0.04107243160575891</v>
+        <v>0.0563793920338167</v>
       </c>
       <c r="F15">
-        <v>3.920090828610626</v>
+        <v>2.589299090884168</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.204238584928078</v>
+        <v>1.856042208314136</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2677637552255447</v>
+        <v>0.2405007068275751</v>
       </c>
       <c r="M15">
-        <v>0.7467390658168824</v>
+        <v>0.3815986337472665</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.11071330030893</v>
+        <v>1.813823203404638</v>
       </c>
       <c r="C16">
-        <v>1.245109540328656</v>
+        <v>0.3529563195009473</v>
       </c>
       <c r="D16">
-        <v>0.07332141943766146</v>
+        <v>0.1073262314671766</v>
       </c>
       <c r="E16">
-        <v>0.04002416172162349</v>
+        <v>0.0560629406532378</v>
       </c>
       <c r="F16">
-        <v>3.686813866141193</v>
+        <v>2.541409604931886</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.093391059271738</v>
+        <v>1.83487626119026</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2523982669802791</v>
+        <v>0.2376414178849018</v>
       </c>
       <c r="M16">
-        <v>0.6957578941775964</v>
+        <v>0.370404638094314</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.924931925881538</v>
+        <v>1.771122040365412</v>
       </c>
       <c r="C17">
-        <v>1.188052785303228</v>
+        <v>0.3384426260527107</v>
       </c>
       <c r="D17">
-        <v>0.07300978448043338</v>
+        <v>0.1073236398620807</v>
       </c>
       <c r="E17">
-        <v>0.03939163889376829</v>
+        <v>0.05586699958285379</v>
       </c>
       <c r="F17">
-        <v>3.546890017266321</v>
+        <v>2.512397686734545</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.027164187906308</v>
+        <v>1.822124263937056</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2431464365851497</v>
+        <v>0.235919366698667</v>
       </c>
       <c r="M17">
-        <v>0.6649333273118998</v>
+        <v>0.3635950180075511</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.818930229963883</v>
+        <v>1.746661635153373</v>
       </c>
       <c r="C18">
-        <v>1.155512185106886</v>
+        <v>0.3301000775857119</v>
       </c>
       <c r="D18">
-        <v>0.0728487738767214</v>
+        <v>0.1073250167739559</v>
       </c>
       <c r="E18">
-        <v>0.03903125899178228</v>
+        <v>0.05575363013559276</v>
       </c>
       <c r="F18">
-        <v>3.467492648440356</v>
+        <v>2.495844727708345</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.989677952039273</v>
+        <v>1.814874658575263</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2378846089053042</v>
+        <v>0.2349406385553863</v>
       </c>
       <c r="M18">
-        <v>0.6473561915813733</v>
+        <v>0.3596993961436112</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.783179664475028</v>
+        <v>1.7383969399732</v>
       </c>
       <c r="C19">
-        <v>1.144539561117995</v>
+        <v>0.327276330740176</v>
       </c>
       <c r="D19">
-        <v>0.07279727298894301</v>
+        <v>0.1073259737542358</v>
       </c>
       <c r="E19">
-        <v>0.03890978972169901</v>
+        <v>0.0557151297841294</v>
       </c>
       <c r="F19">
-        <v>3.440788254500291</v>
+        <v>2.490263102934847</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.977085605272649</v>
+        <v>1.812434620968745</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2361128703865916</v>
+        <v>0.2346112741766149</v>
       </c>
       <c r="M19">
-        <v>0.6414298413430188</v>
+        <v>0.3583840231585427</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.944618503895015</v>
+        <v>1.775657277879986</v>
       </c>
       <c r="C20">
-        <v>1.19409730987735</v>
+        <v>0.3399870753639789</v>
       </c>
       <c r="D20">
-        <v>0.07304104320461846</v>
+        <v>0.1073236185547088</v>
       </c>
       <c r="E20">
-        <v>0.03945860731776474</v>
+        <v>0.05588792701036649</v>
       </c>
       <c r="F20">
-        <v>3.561671162254214</v>
+        <v>2.515472174854693</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.03415045538344</v>
+        <v>1.823472927132258</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2441250453541528</v>
+        <v>0.2361014654277653</v>
       </c>
       <c r="M20">
-        <v>0.6681985997511859</v>
+        <v>0.3643177296442559</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.497796835054544</v>
+        <v>1.902045839093944</v>
       </c>
       <c r="C21">
-        <v>1.364110180949297</v>
+        <v>0.3827588639051669</v>
       </c>
       <c r="D21">
-        <v>0.07408717727773961</v>
+        <v>0.1073500938750556</v>
       </c>
       <c r="E21">
-        <v>0.04134672950742502</v>
+        <v>0.05646053836678711</v>
       </c>
       <c r="F21">
-        <v>3.981377673685159</v>
+        <v>2.601777283543157</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.233445823249738</v>
+        <v>1.86157915359847</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2717886188804357</v>
+        <v>0.2412488385667046</v>
       </c>
       <c r="M21">
-        <v>0.7600522100986282</v>
+        <v>0.384506533634756</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.86869074563873</v>
+        <v>1.985546452005565</v>
       </c>
       <c r="C22">
-        <v>1.478313130062077</v>
+        <v>0.4107650891094181</v>
       </c>
       <c r="D22">
-        <v>0.07496262176841384</v>
+        <v>0.1073933194186694</v>
       </c>
       <c r="E22">
-        <v>0.04262143625286807</v>
+        <v>0.05682891407440493</v>
       </c>
       <c r="F22">
-        <v>4.267271512422667</v>
+        <v>2.659393261895985</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.370128899588579</v>
+        <v>1.88725103794421</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2904996635304968</v>
+        <v>0.2447180242865556</v>
       </c>
       <c r="M22">
-        <v>0.821738000185249</v>
+        <v>0.3978900228595279</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.669788950975544</v>
+        <v>1.940898085229662</v>
       </c>
       <c r="C23">
-        <v>1.417045120715443</v>
+        <v>0.395812611086626</v>
       </c>
       <c r="D23">
-        <v>0.07447627402587642</v>
+        <v>0.1073678584008633</v>
       </c>
       <c r="E23">
-        <v>0.0419368302833707</v>
+        <v>0.05663283616656489</v>
       </c>
       <c r="F23">
-        <v>4.113521245017125</v>
+        <v>2.628530884024769</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.296535246545403</v>
+        <v>1.873478764689096</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2804501603937268</v>
+        <v>0.2428568177432027</v>
       </c>
       <c r="M23">
-        <v>0.7886480760047831</v>
+        <v>0.3907296590866949</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.93571570830261</v>
+        <v>1.773606619659006</v>
       </c>
       <c r="C24">
-        <v>1.191363770508531</v>
+        <v>0.3392888250021429</v>
       </c>
       <c r="D24">
-        <v>0.073026854902011</v>
+        <v>0.1073236192629992</v>
       </c>
       <c r="E24">
-        <v>0.03942832082605108</v>
+        <v>0.05587846796509766</v>
       </c>
       <c r="F24">
-        <v>3.554985366790248</v>
+        <v>2.514081805330903</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.030990141814826</v>
+        <v>1.822862942176357</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2436824393099215</v>
+        <v>0.2360191033938861</v>
       </c>
       <c r="M24">
-        <v>0.6667219236910356</v>
+        <v>0.3639909315497007</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.17585289010583</v>
+        <v>1.596981479964313</v>
       </c>
       <c r="C25">
-        <v>0.9582615563294326</v>
+        <v>0.2785201283110155</v>
       </c>
       <c r="D25">
-        <v>0.07214873133604272</v>
+        <v>0.1073853030546488</v>
       </c>
       <c r="E25">
-        <v>0.03684974829593735</v>
+        <v>0.05503910944908874</v>
       </c>
       <c r="F25">
-        <v>2.993111152555429</v>
+        <v>2.395739331198484</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.767280006664166</v>
+        <v>1.771509277352621</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2062577417690505</v>
+        <v>0.2290924722070571</v>
       </c>
       <c r="M25">
-        <v>0.5409046021584061</v>
+        <v>0.3359545370881705</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.470157689643315</v>
+        <v>2.636061762082988</v>
       </c>
       <c r="C2">
-        <v>0.2339133357980074</v>
+        <v>0.7927620750960216</v>
       </c>
       <c r="D2">
-        <v>0.1075226812808836</v>
+        <v>0.07196486469289098</v>
       </c>
       <c r="E2">
-        <v>0.05439836397515307</v>
+        <v>0.03501750847532747</v>
       </c>
       <c r="F2">
-        <v>2.312878378896968</v>
+        <v>2.605674773320516</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.736421287184186</v>
+        <v>1.588044082112418</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2243747179935482</v>
+        <v>0.1801725634198945</v>
       </c>
       <c r="M2">
-        <v>0.3159931720355544</v>
+        <v>0.4518392057320355</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.386189995712527</v>
+        <v>2.279287201464456</v>
       </c>
       <c r="C3">
-        <v>0.2037510629317296</v>
+        <v>0.6832900186259394</v>
       </c>
       <c r="D3">
-        <v>0.1076720869940289</v>
+        <v>0.07207703343811644</v>
       </c>
       <c r="E3">
-        <v>0.05394962065764108</v>
+        <v>0.03379997986575844</v>
       </c>
       <c r="F3">
-        <v>2.25933059293196</v>
+        <v>2.355887278132386</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.71430840627103</v>
+        <v>1.473965314596512</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2214141773817389</v>
+        <v>0.1632222267547192</v>
       </c>
       <c r="M3">
-        <v>0.3028853873112851</v>
+        <v>0.3931543847428074</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.335603170011154</v>
+        <v>2.063767203990437</v>
       </c>
       <c r="C4">
-        <v>0.1852597149889164</v>
+        <v>0.6170774378125543</v>
       </c>
       <c r="D4">
-        <v>0.1077912464957294</v>
+        <v>0.07224804380633998</v>
       </c>
       <c r="E4">
-        <v>0.05366683351482848</v>
+        <v>0.03305960446271605</v>
       </c>
       <c r="F4">
-        <v>2.227720188075978</v>
+        <v>2.207790029026867</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.701542869023527</v>
+        <v>1.407015086722325</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2197126688249611</v>
+        <v>0.1531193148512315</v>
       </c>
       <c r="M4">
-        <v>0.2950430642277766</v>
+        <v>0.3577903533306852</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.315231812445006</v>
+        <v>1.97670892212119</v>
       </c>
       <c r="C5">
-        <v>0.1777308649235749</v>
+        <v>0.5903048012171155</v>
       </c>
       <c r="D5">
-        <v>0.1078466504850795</v>
+        <v>0.07234145392265035</v>
       </c>
       <c r="E5">
-        <v>0.05354975700495768</v>
+        <v>0.03275908297010943</v>
       </c>
       <c r="F5">
-        <v>2.215155243583865</v>
+        <v>2.148626933591515</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.696543617103487</v>
+        <v>1.380436476850107</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2190484816087874</v>
+        <v>0.1490716279822166</v>
       </c>
       <c r="M5">
-        <v>0.2918989163573613</v>
+        <v>0.3435263435822407</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.311863833676057</v>
+        <v>1.962295961733901</v>
       </c>
       <c r="C6">
-        <v>0.1764810812508131</v>
+        <v>0.5858707008644615</v>
       </c>
       <c r="D6">
-        <v>0.1078562622546357</v>
+        <v>0.07235834342260361</v>
       </c>
       <c r="E6">
-        <v>0.05353020510589612</v>
+        <v>0.03270923642567691</v>
       </c>
       <c r="F6">
-        <v>2.213087895109055</v>
+        <v>2.13887086329774</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.695725705140944</v>
+        <v>1.376063602352474</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.218939955574541</v>
+        <v>0.1484034989426348</v>
       </c>
       <c r="M6">
-        <v>0.2913799500532264</v>
+        <v>0.3411661215777286</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.335327450952889</v>
+        <v>2.06259015053422</v>
       </c>
       <c r="C7">
-        <v>0.1851581526715051</v>
+        <v>0.6167155781229212</v>
       </c>
       <c r="D7">
-        <v>0.1077919660427007</v>
+        <v>0.07224920997851925</v>
       </c>
       <c r="E7">
-        <v>0.05366526204123101</v>
+        <v>0.03305554748925399</v>
       </c>
       <c r="F7">
-        <v>2.22754945423722</v>
+        <v>2.206987499908905</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.701474627992269</v>
+        <v>1.406653880477492</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.219703593229859</v>
+        <v>0.1530644547821254</v>
       </c>
       <c r="M7">
-        <v>0.2950004521198721</v>
+        <v>0.3575974146698258</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.441003940587848</v>
+        <v>2.512233557285299</v>
       </c>
       <c r="C8">
-        <v>0.223507103662314</v>
+        <v>0.7547806993787276</v>
       </c>
       <c r="D8">
-        <v>0.1075684741533998</v>
+        <v>0.07198110195607299</v>
       </c>
       <c r="E8">
-        <v>0.05424513512333995</v>
+        <v>0.03459581609129714</v>
       </c>
       <c r="F8">
-        <v>2.294150467946096</v>
+        <v>2.518366457286248</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.728627446223825</v>
+        <v>1.548020833815244</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2233297603924953</v>
+        <v>0.174260270484595</v>
       </c>
       <c r="M8">
-        <v>0.3114307952182003</v>
+        <v>0.4314526237029241</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.655972928618723</v>
+        <v>3.428281010849844</v>
       </c>
       <c r="C9">
-        <v>0.2989665458969455</v>
+        <v>1.035662835678778</v>
       </c>
       <c r="D9">
-        <v>0.1073500978286717</v>
+        <v>0.07236500823776026</v>
       </c>
       <c r="E9">
-        <v>0.05532533564858788</v>
+        <v>0.03770546989615298</v>
       </c>
       <c r="F9">
-        <v>2.434931384048838</v>
+        <v>3.177772014575169</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.788380427314394</v>
+        <v>1.853510568971288</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2313660915368416</v>
+        <v>0.2186082783556884</v>
       </c>
       <c r="M9">
-        <v>0.3452920438299927</v>
+        <v>0.5826503668505865</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.818709298254589</v>
+        <v>4.132033608013103</v>
       </c>
       <c r="C10">
-        <v>0.3546131732749132</v>
+        <v>1.251659605751513</v>
       </c>
       <c r="D10">
-        <v>0.1073269170639364</v>
+        <v>0.07335954212544493</v>
       </c>
       <c r="E10">
-        <v>0.05608520853995547</v>
+        <v>0.04009683345946247</v>
       </c>
       <c r="F10">
-        <v>2.544738275459451</v>
+        <v>3.702933076898233</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.83634290636077</v>
+        <v>2.101033367889542</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2378395095866921</v>
+        <v>0.2534623581404816</v>
       </c>
       <c r="M10">
-        <v>0.371184524829907</v>
+        <v>0.6992967761254363</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.893803776385084</v>
+        <v>4.461435449127293</v>
       </c>
       <c r="C11">
-        <v>0.3799843339745053</v>
+        <v>1.352923995148615</v>
       </c>
       <c r="D11">
-        <v>0.1073468735176775</v>
+        <v>0.07400870995865461</v>
       </c>
       <c r="E11">
-        <v>0.05642377703135537</v>
+        <v>0.04122218202623973</v>
       </c>
       <c r="F11">
-        <v>2.596114556266656</v>
+        <v>3.953538332790458</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.85906536543007</v>
+        <v>2.220174289305106</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2409091785256265</v>
+        <v>0.2699609491938304</v>
       </c>
       <c r="M11">
-        <v>0.3831873330131685</v>
+        <v>0.7540088045298106</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.922394475568751</v>
+        <v>4.587753980135517</v>
       </c>
       <c r="C12">
-        <v>0.3896007724806054</v>
+        <v>1.391791864666061</v>
       </c>
       <c r="D12">
-        <v>0.1073588733540234</v>
+        <v>0.07428701041834529</v>
       </c>
       <c r="E12">
-        <v>0.05655097919180019</v>
+        <v>0.04165516312590789</v>
       </c>
       <c r="F12">
-        <v>2.615777120314391</v>
+        <v>4.050398380641013</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.867801379878301</v>
+        <v>2.266379273813797</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2420896178969656</v>
+        <v>0.2763155068682153</v>
       </c>
       <c r="M12">
-        <v>0.3877649369682601</v>
+        <v>0.7750066700896951</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.916230090374938</v>
+        <v>4.560474334087644</v>
       </c>
       <c r="C13">
-        <v>0.3875292919018989</v>
+        <v>1.383396229580114</v>
       </c>
       <c r="D13">
-        <v>0.1073560904747168</v>
+        <v>0.07422555532952657</v>
       </c>
       <c r="E13">
-        <v>0.05652362845149117</v>
+        <v>0.04156158313960567</v>
       </c>
       <c r="F13">
-        <v>2.611533165379427</v>
+        <v>4.029445748399951</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.86591404969495</v>
+        <v>2.25637718250394</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2418345865510645</v>
+        <v>0.2749419338066872</v>
       </c>
       <c r="M13">
-        <v>0.3867776243353234</v>
+        <v>0.7704712255445827</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.8961528575839</v>
+        <v>4.47179450186286</v>
       </c>
       <c r="C14">
-        <v>0.3807753011143973</v>
+        <v>1.356110674157094</v>
       </c>
       <c r="D14">
-        <v>0.1073477713861308</v>
+        <v>0.07403092872925043</v>
       </c>
       <c r="E14">
-        <v>0.05643426211327984</v>
+        <v>0.04125765746391696</v>
       </c>
       <c r="F14">
-        <v>2.597728033850444</v>
+        <v>3.961466024736353</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.859781438224303</v>
+        <v>2.223952852230738</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2410059324083846</v>
+        <v>0.2704815103938358</v>
       </c>
       <c r="M14">
-        <v>0.3835632849214292</v>
+        <v>0.755730442490929</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.883875062757284</v>
+        <v>4.417689486600693</v>
       </c>
       <c r="C15">
-        <v>0.3766394707894847</v>
+        <v>1.33946823304791</v>
       </c>
       <c r="D15">
-        <v>0.1073432559706262</v>
+        <v>0.07391607890988183</v>
       </c>
       <c r="E15">
-        <v>0.0563793920338167</v>
+        <v>0.04107243160576068</v>
       </c>
       <c r="F15">
-        <v>2.589299090884168</v>
+        <v>3.92009082861054</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.856042208314136</v>
+        <v>2.204238584928035</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2405007068275751</v>
+        <v>0.2677637552255447</v>
       </c>
       <c r="M15">
-        <v>0.3815986337472665</v>
+        <v>0.7467390658168753</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.813823203404638</v>
+        <v>4.11071330030893</v>
       </c>
       <c r="C16">
-        <v>0.3529563195009473</v>
+        <v>1.24510954032877</v>
       </c>
       <c r="D16">
-        <v>0.1073262314671766</v>
+        <v>0.07332141943727066</v>
       </c>
       <c r="E16">
-        <v>0.0560629406532378</v>
+        <v>0.04002416172162171</v>
       </c>
       <c r="F16">
-        <v>2.541409604931886</v>
+        <v>3.686813866141193</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.83487626119026</v>
+        <v>2.093391059271752</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2376414178849018</v>
+        <v>0.2523982669803928</v>
       </c>
       <c r="M16">
-        <v>0.370404638094314</v>
+        <v>0.6957578941776035</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.771122040365412</v>
+        <v>3.924931925881538</v>
       </c>
       <c r="C17">
-        <v>0.3384426260527107</v>
+        <v>1.188052785303512</v>
       </c>
       <c r="D17">
-        <v>0.1073236398620807</v>
+        <v>0.07300978448031969</v>
       </c>
       <c r="E17">
-        <v>0.05586699958285379</v>
+        <v>0.03939163889374164</v>
       </c>
       <c r="F17">
-        <v>2.512397686734545</v>
+        <v>3.546890017266293</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.822124263937056</v>
+        <v>2.027164187906266</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.235919366698667</v>
+        <v>0.2431464365851639</v>
       </c>
       <c r="M17">
-        <v>0.3635950180075511</v>
+        <v>0.6649333273118998</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.746661635153373</v>
+        <v>3.818930229963939</v>
       </c>
       <c r="C18">
-        <v>0.3301000775857119</v>
+        <v>1.155512185106545</v>
       </c>
       <c r="D18">
-        <v>0.1073250167739559</v>
+        <v>0.07284877387669297</v>
       </c>
       <c r="E18">
-        <v>0.05575363013559276</v>
+        <v>0.03903125899173698</v>
       </c>
       <c r="F18">
-        <v>2.495844727708345</v>
+        <v>3.467492648440384</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.814874658575263</v>
+        <v>1.989677952039287</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2349406385553863</v>
+        <v>0.23788460890529</v>
       </c>
       <c r="M18">
-        <v>0.3596993961436112</v>
+        <v>0.647356191581359</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.7383969399732</v>
+        <v>3.783179664475028</v>
       </c>
       <c r="C19">
-        <v>0.327276330740176</v>
+        <v>1.144539561118336</v>
       </c>
       <c r="D19">
-        <v>0.1073259737542358</v>
+        <v>0.0727972729889288</v>
       </c>
       <c r="E19">
-        <v>0.0557151297841294</v>
+        <v>0.03890978972169989</v>
       </c>
       <c r="F19">
-        <v>2.490263102934847</v>
+        <v>3.440788254500347</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.812434620968745</v>
+        <v>1.977085605272691</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2346112741766149</v>
+        <v>0.2361128703866768</v>
       </c>
       <c r="M19">
-        <v>0.3583840231585427</v>
+        <v>0.641429841343033</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.775657277879986</v>
+        <v>3.944618503895072</v>
       </c>
       <c r="C20">
-        <v>0.3399870753639789</v>
+        <v>1.19409730987735</v>
       </c>
       <c r="D20">
-        <v>0.1073236185547088</v>
+        <v>0.07304104320435556</v>
       </c>
       <c r="E20">
-        <v>0.05588792701036649</v>
+        <v>0.03945860731773454</v>
       </c>
       <c r="F20">
-        <v>2.515472174854693</v>
+        <v>3.561671162254214</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.823472927132258</v>
+        <v>2.034150455383426</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2361014654277653</v>
+        <v>0.2441250453542523</v>
       </c>
       <c r="M20">
-        <v>0.3643177296442559</v>
+        <v>0.6681985997511717</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.902045839093944</v>
+        <v>4.497796835054714</v>
       </c>
       <c r="C21">
-        <v>0.3827588639051669</v>
+        <v>1.364110180949751</v>
       </c>
       <c r="D21">
-        <v>0.1073500938750556</v>
+        <v>0.07408717727843595</v>
       </c>
       <c r="E21">
-        <v>0.05646053836678711</v>
+        <v>0.04134672950737439</v>
       </c>
       <c r="F21">
-        <v>2.601777283543157</v>
+        <v>3.981377673685245</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.86157915359847</v>
+        <v>2.233445823249752</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2412488385667046</v>
+        <v>0.2717886188804073</v>
       </c>
       <c r="M21">
-        <v>0.384506533634756</v>
+        <v>0.7600522100986424</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.985546452005565</v>
+        <v>4.86869074563873</v>
       </c>
       <c r="C22">
-        <v>0.4107650891094181</v>
+        <v>1.478313130062133</v>
       </c>
       <c r="D22">
-        <v>0.1073933194186694</v>
+        <v>0.07496262176834989</v>
       </c>
       <c r="E22">
-        <v>0.05682891407440493</v>
+        <v>0.04262143625277659</v>
       </c>
       <c r="F22">
-        <v>2.659393261895985</v>
+        <v>4.267271512422695</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.88725103794421</v>
+        <v>2.370128899588593</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2447180242865556</v>
+        <v>0.2904996635304826</v>
       </c>
       <c r="M22">
-        <v>0.3978900228595279</v>
+        <v>0.8217380001852419</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.940898085229662</v>
+        <v>4.669788950975544</v>
       </c>
       <c r="C23">
-        <v>0.395812611086626</v>
+        <v>1.417045120715954</v>
       </c>
       <c r="D23">
-        <v>0.1073678584008633</v>
+        <v>0.07447627402578405</v>
       </c>
       <c r="E23">
-        <v>0.05663283616656489</v>
+        <v>0.04193683028333339</v>
       </c>
       <c r="F23">
-        <v>2.628530884024769</v>
+        <v>4.113521245017125</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.873478764689096</v>
+        <v>2.296535246545389</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2428568177432027</v>
+        <v>0.2804501603937695</v>
       </c>
       <c r="M23">
-        <v>0.3907296590866949</v>
+        <v>0.7886480760047689</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.773606619659006</v>
+        <v>3.935715708303007</v>
       </c>
       <c r="C24">
-        <v>0.3392888250021429</v>
+        <v>1.191363770508985</v>
       </c>
       <c r="D24">
-        <v>0.1073236192629992</v>
+        <v>0.0730268549020181</v>
       </c>
       <c r="E24">
-        <v>0.05587846796509766</v>
+        <v>0.03942832082601999</v>
       </c>
       <c r="F24">
-        <v>2.514081805330903</v>
+        <v>3.554985366790248</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.822862942176357</v>
+        <v>2.030990141814826</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2360191033938861</v>
+        <v>0.2436824393099926</v>
       </c>
       <c r="M24">
-        <v>0.3639909315497007</v>
+        <v>0.6667219236910356</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.596981479964313</v>
+        <v>3.175852890105602</v>
       </c>
       <c r="C25">
-        <v>0.2785201283110155</v>
+        <v>0.9582615563289494</v>
       </c>
       <c r="D25">
-        <v>0.1073853030546488</v>
+        <v>0.07214873133600719</v>
       </c>
       <c r="E25">
-        <v>0.05503910944908874</v>
+        <v>0.036849748295948</v>
       </c>
       <c r="F25">
-        <v>2.395739331198484</v>
+        <v>2.993111152555485</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.771509277352621</v>
+        <v>1.767280006664166</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2290924722070571</v>
+        <v>0.2062577417690363</v>
       </c>
       <c r="M25">
-        <v>0.3359545370881705</v>
+        <v>0.5409046021584061</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.636061762082988</v>
+        <v>0.6981397613833735</v>
       </c>
       <c r="C2">
-        <v>0.7927620750960216</v>
+        <v>0.2850000462559592</v>
       </c>
       <c r="D2">
-        <v>0.07196486469289098</v>
+        <v>0.007763051400221599</v>
       </c>
       <c r="E2">
-        <v>0.03501750847532747</v>
+        <v>0.0454515205339483</v>
       </c>
       <c r="F2">
-        <v>2.605674773320516</v>
+        <v>3.07447821749065</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02221027648960061</v>
       </c>
       <c r="I2">
-        <v>1.588044082112418</v>
+        <v>0.02878234780840394</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.800113867308298</v>
       </c>
       <c r="L2">
-        <v>0.1801725634198945</v>
+        <v>0.1218451676229364</v>
       </c>
       <c r="M2">
-        <v>0.4518392057320355</v>
+        <v>0.9763860746593025</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2828624760057892</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.279287201464456</v>
+        <v>0.6067932376527096</v>
       </c>
       <c r="C3">
-        <v>0.6832900186259394</v>
+        <v>0.2501656430306127</v>
       </c>
       <c r="D3">
-        <v>0.07207703343811644</v>
+        <v>0.007133517692864189</v>
       </c>
       <c r="E3">
-        <v>0.03379997986575844</v>
+        <v>0.03955048650020387</v>
       </c>
       <c r="F3">
-        <v>2.355887278132386</v>
+        <v>2.832838656420321</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02798953583178521</v>
       </c>
       <c r="I3">
-        <v>1.473965314596512</v>
+        <v>0.03536522496458927</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.671574534190242</v>
       </c>
       <c r="L3">
-        <v>0.1632222267547192</v>
+        <v>0.1067691037592766</v>
       </c>
       <c r="M3">
-        <v>0.3931543847428074</v>
+        <v>0.8497849269898268</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2468615351396899</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.063767203990437</v>
+        <v>0.5507783538269564</v>
       </c>
       <c r="C4">
-        <v>0.6170774378125543</v>
+        <v>0.2292397010449321</v>
       </c>
       <c r="D4">
-        <v>0.07224804380633998</v>
+        <v>0.006768491158815948</v>
       </c>
       <c r="E4">
-        <v>0.03305960446271605</v>
+        <v>0.03596947908780201</v>
       </c>
       <c r="F4">
-        <v>2.207790029026867</v>
+        <v>2.683729512504769</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.03200285883883991</v>
       </c>
       <c r="I4">
-        <v>1.407015086722325</v>
+        <v>0.0399248027403023</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.591773294326174</v>
       </c>
       <c r="L4">
-        <v>0.1531193148512315</v>
+        <v>0.09752757243803245</v>
       </c>
       <c r="M4">
-        <v>0.3577903533306852</v>
+        <v>0.7725713770674645</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.224870596081292</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.97670892212119</v>
+        <v>0.5277434061579527</v>
       </c>
       <c r="C5">
-        <v>0.5903048012171155</v>
+        <v>0.2212074178049903</v>
       </c>
       <c r="D5">
-        <v>0.07234145392265035</v>
+        <v>0.006688610428344788</v>
       </c>
       <c r="E5">
-        <v>0.03275908297010943</v>
+        <v>0.03456307711549478</v>
       </c>
       <c r="F5">
-        <v>2.148626933591515</v>
+        <v>2.618267009646885</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.03376371322162042</v>
       </c>
       <c r="I5">
-        <v>1.380436476850107</v>
+        <v>0.04202258841837025</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.555673200559539</v>
       </c>
       <c r="L5">
-        <v>0.1490716279822166</v>
+        <v>0.09367444158797156</v>
       </c>
       <c r="M5">
-        <v>0.3435263435822407</v>
+        <v>0.7414257586665087</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2160624700918312</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.962295961733901</v>
+        <v>0.5236509682382291</v>
       </c>
       <c r="C6">
-        <v>0.5858707008644615</v>
+        <v>0.2203555048145631</v>
       </c>
       <c r="D6">
-        <v>0.07235834342260361</v>
+        <v>0.006754626586110035</v>
       </c>
       <c r="E6">
-        <v>0.03270923642567691</v>
+        <v>0.03438356187789537</v>
       </c>
       <c r="F6">
-        <v>2.13887086329774</v>
+        <v>2.601891729199266</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.03407870229367083</v>
       </c>
       <c r="I6">
-        <v>1.376063602352474</v>
+        <v>0.04252558518187577</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.5455694432342</v>
       </c>
       <c r="L6">
-        <v>0.1484034989426348</v>
+        <v>0.0929268284367808</v>
       </c>
       <c r="M6">
-        <v>0.3411661215777286</v>
+        <v>0.736511678991036</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.214758939141344</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.06259015053422</v>
+        <v>0.5497309643984352</v>
       </c>
       <c r="C7">
-        <v>0.6167155781229212</v>
+        <v>0.2304315302746289</v>
       </c>
       <c r="D7">
-        <v>0.07224920997851925</v>
+        <v>0.006982643174749725</v>
       </c>
       <c r="E7">
-        <v>0.03305554748925399</v>
+        <v>0.03609688142464051</v>
       </c>
       <c r="F7">
-        <v>2.206987499908905</v>
+        <v>2.667823818410824</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.03206784945618302</v>
       </c>
       <c r="I7">
-        <v>1.406653880477492</v>
+        <v>0.04033397668787586</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.580081001449955</v>
       </c>
       <c r="L7">
-        <v>0.1530644547821254</v>
+        <v>0.09717954493787317</v>
       </c>
       <c r="M7">
-        <v>0.3575974146698258</v>
+        <v>0.7728348756640742</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2251829900338151</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.512233557285299</v>
+        <v>0.665626930353227</v>
       </c>
       <c r="C8">
-        <v>0.7547806993787276</v>
+        <v>0.2746183442920085</v>
       </c>
       <c r="D8">
-        <v>0.07198110195607299</v>
+        <v>0.007828988638003409</v>
       </c>
       <c r="E8">
-        <v>0.03459581609129714</v>
+        <v>0.04360251527005587</v>
       </c>
       <c r="F8">
-        <v>2.518366457286248</v>
+        <v>2.971354002280052</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.02415034504006353</v>
       </c>
       <c r="I8">
-        <v>1.548020833815244</v>
+        <v>0.03139246152475295</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.741086393051148</v>
       </c>
       <c r="L8">
-        <v>0.174260270484595</v>
+        <v>0.1162428283209138</v>
       </c>
       <c r="M8">
-        <v>0.4314526237029241</v>
+        <v>0.9335113865557787</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2709969428139374</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.428281010849844</v>
+        <v>0.8952135350020001</v>
       </c>
       <c r="C9">
-        <v>1.035662835678778</v>
+        <v>0.3630324423223215</v>
       </c>
       <c r="D9">
-        <v>0.07236500823776026</v>
+        <v>0.00928265725593036</v>
       </c>
       <c r="E9">
-        <v>0.03770546989615298</v>
+        <v>0.05845774439978513</v>
       </c>
       <c r="F9">
-        <v>3.177772014575169</v>
+        <v>3.588636624245282</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01246953776886872</v>
       </c>
       <c r="I9">
-        <v>1.853510568971288</v>
+        <v>0.01763694802032045</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.070355724403697</v>
       </c>
       <c r="L9">
-        <v>0.2186082783556884</v>
+        <v>0.1544259214913524</v>
       </c>
       <c r="M9">
-        <v>0.5826503668505865</v>
+        <v>1.252317624640341</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.3611583003700289</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.132033608013103</v>
+        <v>1.068437859167204</v>
       </c>
       <c r="C10">
-        <v>1.251659605751513</v>
+        <v>0.4275302239635153</v>
       </c>
       <c r="D10">
-        <v>0.07335954212544493</v>
+        <v>0.01036065338979597</v>
       </c>
       <c r="E10">
-        <v>0.04009683345946247</v>
+        <v>0.06601032015671038</v>
       </c>
       <c r="F10">
-        <v>3.702933076898233</v>
+        <v>3.951856695630369</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.007057386587463466</v>
       </c>
       <c r="I10">
-        <v>2.101033367889542</v>
+        <v>0.01086323117658594</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.255315025678613</v>
       </c>
       <c r="L10">
-        <v>0.2534623581404816</v>
+        <v>0.1724527973929852</v>
       </c>
       <c r="M10">
-        <v>0.6992967761254363</v>
+        <v>1.490165569224331</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.4213130441609252</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.461435449127293</v>
+        <v>1.180187806630101</v>
       </c>
       <c r="C11">
-        <v>1.352923995148615</v>
+        <v>0.4226231599636492</v>
       </c>
       <c r="D11">
-        <v>0.07400870995865461</v>
+        <v>0.009362342186825856</v>
       </c>
       <c r="E11">
-        <v>0.04122218202623973</v>
+        <v>0.0412937465584946</v>
       </c>
       <c r="F11">
-        <v>3.953538332790458</v>
+        <v>3.417008731795022</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02561239181762787</v>
       </c>
       <c r="I11">
-        <v>2.220174289305106</v>
+        <v>0.01015306659026827</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.92546561589252</v>
       </c>
       <c r="L11">
-        <v>0.2699609491938304</v>
+        <v>0.1050010733510049</v>
       </c>
       <c r="M11">
-        <v>0.7540088045298106</v>
+        <v>1.592438986960616</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.3876784200928611</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.587753980135517</v>
+        <v>1.240867791029018</v>
       </c>
       <c r="C12">
-        <v>1.391791864666061</v>
+        <v>0.4025246981900352</v>
       </c>
       <c r="D12">
-        <v>0.07428701041834529</v>
+        <v>0.008085885239765389</v>
       </c>
       <c r="E12">
-        <v>0.04165516312590789</v>
+        <v>0.02459360354745854</v>
       </c>
       <c r="F12">
-        <v>4.050398380641013</v>
+        <v>2.947300961110784</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06484462035156469</v>
       </c>
       <c r="I12">
-        <v>2.266379273813797</v>
+        <v>0.01012201303428117</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.649346284621814</v>
       </c>
       <c r="L12">
-        <v>0.2763155068682153</v>
+        <v>0.06300875834047304</v>
       </c>
       <c r="M12">
-        <v>0.7750066700896951</v>
+        <v>1.627044812634949</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3474259054323454</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.560474334087644</v>
+        <v>1.263916419504966</v>
       </c>
       <c r="C13">
-        <v>1.383396229580114</v>
+        <v>0.3717232905573553</v>
       </c>
       <c r="D13">
-        <v>0.07422555532952657</v>
+        <v>0.006827021271689659</v>
       </c>
       <c r="E13">
-        <v>0.04156158313960567</v>
+        <v>0.01336087021921006</v>
       </c>
       <c r="F13">
-        <v>4.029445748399951</v>
+        <v>2.478678128021784</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1217524991401149</v>
       </c>
       <c r="I13">
-        <v>2.25637718250394</v>
+        <v>0.01106553040822167</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.381799145996098</v>
       </c>
       <c r="L13">
-        <v>0.2749419338066872</v>
+        <v>0.03778614616500775</v>
       </c>
       <c r="M13">
-        <v>0.7704712255445827</v>
+        <v>1.612244049713439</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3007895055211023</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.47179450186286</v>
+        <v>1.262782855887991</v>
       </c>
       <c r="C14">
-        <v>1.356110674157094</v>
+        <v>0.3459457852545427</v>
       </c>
       <c r="D14">
-        <v>0.07403092872925043</v>
+        <v>0.006012692004780718</v>
       </c>
       <c r="E14">
-        <v>0.04125765746391696</v>
+        <v>0.008835919265672398</v>
       </c>
       <c r="F14">
-        <v>3.961466024736353</v>
+        <v>2.155085681051759</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1722071536910335</v>
       </c>
       <c r="I14">
-        <v>2.223952852230738</v>
+        <v>0.0123181783012436</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.200468547700353</v>
       </c>
       <c r="L14">
-        <v>0.2704815103938358</v>
+        <v>0.03023916790321879</v>
       </c>
       <c r="M14">
-        <v>0.755730442490929</v>
+        <v>1.579862603967939</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2659493347881963</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.417689486600693</v>
+        <v>1.253851011428651</v>
       </c>
       <c r="C15">
-        <v>1.33946823304791</v>
+        <v>0.3379372003787751</v>
       </c>
       <c r="D15">
-        <v>0.07391607890988183</v>
+        <v>0.005870826479995372</v>
       </c>
       <c r="E15">
-        <v>0.04107243160576068</v>
+        <v>0.008134409902784689</v>
       </c>
       <c r="F15">
-        <v>3.92009082861054</v>
+        <v>2.068735374325982</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1852070066760518</v>
       </c>
       <c r="I15">
-        <v>2.204238584928035</v>
+        <v>0.01302085414863186</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.152606680127022</v>
       </c>
       <c r="L15">
-        <v>0.2677637552255447</v>
+        <v>0.02961021528409891</v>
       </c>
       <c r="M15">
-        <v>0.7467390658168753</v>
+        <v>1.56178479812192</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2561365526626318</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.11071330030893</v>
+        <v>1.172838782265075</v>
       </c>
       <c r="C16">
-        <v>1.24510954032877</v>
+        <v>0.317731615248789</v>
       </c>
       <c r="D16">
-        <v>0.07332141943727066</v>
+        <v>0.005742527393493901</v>
       </c>
       <c r="E16">
-        <v>0.04002416172162171</v>
+        <v>0.007647426224159037</v>
       </c>
       <c r="F16">
-        <v>3.686813866141193</v>
+        <v>2.011596179476399</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1748156272806511</v>
       </c>
       <c r="I16">
-        <v>2.093391059271752</v>
+        <v>0.01581742467785574</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.128296922359596</v>
       </c>
       <c r="L16">
-        <v>0.2523982669803928</v>
+        <v>0.02810654887497011</v>
       </c>
       <c r="M16">
-        <v>0.6957578941776035</v>
+        <v>1.462535151364278</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2414893521017518</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.924931925881538</v>
+        <v>1.111492901760727</v>
       </c>
       <c r="C17">
-        <v>1.188052785303512</v>
+        <v>0.3159357867455128</v>
       </c>
       <c r="D17">
-        <v>0.07300978448031969</v>
+        <v>0.006095466897523494</v>
       </c>
       <c r="E17">
-        <v>0.03939163889374164</v>
+        <v>0.009087616465493831</v>
       </c>
       <c r="F17">
-        <v>3.546890017266293</v>
+        <v>2.133893908368151</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1382724630181826</v>
       </c>
       <c r="I17">
-        <v>2.027164187906266</v>
+        <v>0.01736675847590963</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.20223159660879</v>
       </c>
       <c r="L17">
-        <v>0.2431464365851639</v>
+        <v>0.02910462544013592</v>
       </c>
       <c r="M17">
-        <v>0.6649333273118998</v>
+        <v>1.403853316403996</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2483732633369122</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.818930229963939</v>
+        <v>1.06120654497272</v>
       </c>
       <c r="C18">
-        <v>1.155512185106545</v>
+        <v>0.3287031848857112</v>
       </c>
       <c r="D18">
-        <v>0.07284877387669297</v>
+        <v>0.006785076087432174</v>
       </c>
       <c r="E18">
-        <v>0.03903125899173698</v>
+        <v>0.01524146134290927</v>
       </c>
       <c r="F18">
-        <v>3.467492648440384</v>
+        <v>2.452701266598893</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08545870383746035</v>
       </c>
       <c r="I18">
-        <v>1.989677952039287</v>
+        <v>0.01742333584699729</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.388454296435199</v>
       </c>
       <c r="L18">
-        <v>0.23788460890529</v>
+        <v>0.04134775679658986</v>
       </c>
       <c r="M18">
-        <v>0.647356191581359</v>
+        <v>1.372351400723403</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2752080164479054</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.783179664475028</v>
+        <v>1.022633391341685</v>
       </c>
       <c r="C19">
-        <v>1.144539561118336</v>
+        <v>0.3549135460801551</v>
       </c>
       <c r="D19">
-        <v>0.0727972729889288</v>
+        <v>0.008166759898458054</v>
       </c>
       <c r="E19">
-        <v>0.03890978972169989</v>
+        <v>0.02929137016809946</v>
       </c>
       <c r="F19">
-        <v>3.440788254500347</v>
+        <v>2.915494041328259</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0389102093303535</v>
       </c>
       <c r="I19">
-        <v>1.977085605272691</v>
+        <v>0.0168203821865065</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.655858738309135</v>
       </c>
       <c r="L19">
-        <v>0.2361128703866768</v>
+        <v>0.07502547366261325</v>
       </c>
       <c r="M19">
-        <v>0.641429841343033</v>
+        <v>1.366179516877565</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.3186422802150517</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.944618503895072</v>
+        <v>1.020527217982334</v>
       </c>
       <c r="C20">
-        <v>1.19409730987735</v>
+        <v>0.4143249066541443</v>
       </c>
       <c r="D20">
-        <v>0.07304104320435556</v>
+        <v>0.01077468818911598</v>
       </c>
       <c r="E20">
-        <v>0.03945860731773454</v>
+        <v>0.06430356805001836</v>
       </c>
       <c r="F20">
-        <v>3.561671162254214</v>
+        <v>3.80631767501967</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.008355272107621659</v>
       </c>
       <c r="I20">
-        <v>2.034150455383426</v>
+        <v>0.01343726412761903</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.170068465093777</v>
       </c>
       <c r="L20">
-        <v>0.2441250453542523</v>
+        <v>0.1663030646162724</v>
       </c>
       <c r="M20">
-        <v>0.6681985997511717</v>
+        <v>1.429404673394259</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.4065171694196721</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.497796835054714</v>
+        <v>1.148664273560428</v>
       </c>
       <c r="C21">
-        <v>1.364110180949751</v>
+        <v>0.4707407800054</v>
       </c>
       <c r="D21">
-        <v>0.07408717727843595</v>
+        <v>0.01186816260602086</v>
       </c>
       <c r="E21">
-        <v>0.04134672950737439</v>
+        <v>0.07599065557311491</v>
       </c>
       <c r="F21">
-        <v>3.981377673685245</v>
+        <v>4.220196509702049</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.004416745944863631</v>
       </c>
       <c r="I21">
-        <v>2.233445823249752</v>
+        <v>0.008788249248508961</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.39226307438436</v>
       </c>
       <c r="L21">
-        <v>0.2717886188804073</v>
+        <v>0.1962965581833558</v>
       </c>
       <c r="M21">
-        <v>0.7600522100986424</v>
+        <v>1.614528237585773</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.4639972042250022</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.86869074563873</v>
+        <v>1.235792288684422</v>
       </c>
       <c r="C22">
-        <v>1.478313130062133</v>
+        <v>0.5045035684425727</v>
       </c>
       <c r="D22">
-        <v>0.07496262176834989</v>
+        <v>0.01218682337928456</v>
       </c>
       <c r="E22">
-        <v>0.04262143625277659</v>
+        <v>0.08159864327302202</v>
       </c>
       <c r="F22">
-        <v>4.267271512422695</v>
+        <v>4.469526173403779</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002657890938296603</v>
       </c>
       <c r="I22">
-        <v>2.370128899588593</v>
+        <v>0.006131298979263455</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.527552933477253</v>
       </c>
       <c r="L22">
-        <v>0.2904996635304826</v>
+        <v>0.211262439270385</v>
       </c>
       <c r="M22">
-        <v>0.8217380001852419</v>
+        <v>1.735413266404265</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.497576232198675</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.669788950975544</v>
+        <v>1.190200645212229</v>
       </c>
       <c r="C23">
-        <v>1.417045120715954</v>
+        <v>0.4848316464765219</v>
       </c>
       <c r="D23">
-        <v>0.07447627402578405</v>
+        <v>0.01173709941198098</v>
       </c>
       <c r="E23">
-        <v>0.04193683028333339</v>
+        <v>0.07841760742128301</v>
       </c>
       <c r="F23">
-        <v>4.113521245017125</v>
+        <v>4.354344576409176</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.003523918876421117</v>
       </c>
       <c r="I23">
-        <v>2.296535246545389</v>
+        <v>0.007122540755318596</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.468736264867999</v>
       </c>
       <c r="L23">
-        <v>0.2804501603937695</v>
+        <v>0.2036408058543557</v>
       </c>
       <c r="M23">
-        <v>0.7886480760047689</v>
+        <v>1.670017086296724</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.4791090722638884</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.935715708303007</v>
+        <v>1.0168994323042</v>
       </c>
       <c r="C24">
-        <v>1.191363770508985</v>
+        <v>0.4143776208793213</v>
       </c>
       <c r="D24">
-        <v>0.0730268549020181</v>
+        <v>0.01052280638156589</v>
       </c>
       <c r="E24">
-        <v>0.03942832082601999</v>
+        <v>0.06684078666406279</v>
       </c>
       <c r="F24">
-        <v>3.554985366790248</v>
+        <v>3.8908613811534</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.00803236078892311</v>
       </c>
       <c r="I24">
-        <v>2.030990141814826</v>
+        <v>0.01277150142461103</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.224443100328173</v>
       </c>
       <c r="L24">
-        <v>0.2436824393099926</v>
+        <v>0.1744570794908427</v>
       </c>
       <c r="M24">
-        <v>0.6667219236910356</v>
+        <v>1.425904797587691</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.4105261774797597</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.175852890105602</v>
+        <v>0.8315426245436583</v>
       </c>
       <c r="C25">
-        <v>0.9582615563289494</v>
+        <v>0.340996595186482</v>
       </c>
       <c r="D25">
-        <v>0.07214873133600719</v>
+        <v>0.009274365616214197</v>
       </c>
       <c r="E25">
-        <v>0.036849748295948</v>
+        <v>0.05465623277978082</v>
       </c>
       <c r="F25">
-        <v>2.993111152555485</v>
+        <v>3.394703913405863</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01522810347256776</v>
       </c>
       <c r="I25">
-        <v>1.767280006664166</v>
+        <v>0.02144695889463577</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.961555969984133</v>
       </c>
       <c r="L25">
-        <v>0.2062577417690363</v>
+        <v>0.1434896661550624</v>
       </c>
       <c r="M25">
-        <v>0.5409046021584061</v>
+        <v>1.166629265722491</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0.3374098693110312</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6981397613833735</v>
+        <v>0.6687190604346256</v>
       </c>
       <c r="C2">
-        <v>0.2850000462559592</v>
+        <v>0.3687755850130543</v>
       </c>
       <c r="D2">
-        <v>0.007763051400221599</v>
+        <v>0.02609803692441659</v>
       </c>
       <c r="E2">
-        <v>0.0454515205339483</v>
+        <v>0.05723157143068036</v>
       </c>
       <c r="F2">
-        <v>3.07447821749065</v>
+        <v>2.253825496339147</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02221027648960061</v>
+        <v>0.01863079720009797</v>
       </c>
       <c r="I2">
-        <v>0.02878234780840394</v>
+        <v>0.02015460750676201</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>1.800113867308298</v>
+        <v>1.179859154655922</v>
       </c>
       <c r="L2">
-        <v>0.1218451676229364</v>
+        <v>0.4623204288822151</v>
       </c>
       <c r="M2">
-        <v>0.9763860746593025</v>
+        <v>0.4208514132899666</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1113685367474417</v>
       </c>
       <c r="O2">
-        <v>0.2828624760057892</v>
+        <v>1.021012892642716</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3094457391462697</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6067932376527096</v>
+        <v>0.5825405581024938</v>
       </c>
       <c r="C3">
-        <v>0.2501656430306127</v>
+        <v>0.3234865730867398</v>
       </c>
       <c r="D3">
-        <v>0.007133517692864189</v>
+        <v>0.02217954298343727</v>
       </c>
       <c r="E3">
-        <v>0.03955048650020387</v>
+        <v>0.04993619142172889</v>
       </c>
       <c r="F3">
-        <v>2.832838656420321</v>
+        <v>2.117573217522107</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02798953583178521</v>
+        <v>0.02353243522692439</v>
       </c>
       <c r="I3">
-        <v>0.03536522496458927</v>
+        <v>0.024889601704567</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>1.671574534190242</v>
+        <v>1.125817592749776</v>
       </c>
       <c r="L3">
-        <v>0.1067691037592766</v>
+        <v>0.4507677572491176</v>
       </c>
       <c r="M3">
-        <v>0.8497849269898268</v>
+        <v>0.393728076075142</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.09869148679562301</v>
       </c>
       <c r="O3">
-        <v>0.2468615351396899</v>
+        <v>0.8875596278292335</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2695915486319223</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5507783538269564</v>
+        <v>0.529547811566232</v>
       </c>
       <c r="C4">
-        <v>0.2292397010449321</v>
+        <v>0.2962618848519298</v>
       </c>
       <c r="D4">
-        <v>0.006768491158815948</v>
+        <v>0.01985221241075408</v>
       </c>
       <c r="E4">
-        <v>0.03596947908780201</v>
+        <v>0.04549703828798712</v>
       </c>
       <c r="F4">
-        <v>2.683729512504769</v>
+        <v>2.033173316327591</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.03200285883883991</v>
+        <v>0.02694338993259104</v>
       </c>
       <c r="I4">
-        <v>0.0399248027403023</v>
+        <v>0.02819726981176895</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>1.591773294326174</v>
+        <v>1.091870323289413</v>
       </c>
       <c r="L4">
-        <v>0.09752757243803245</v>
+        <v>0.4430193154378372</v>
       </c>
       <c r="M4">
-        <v>0.7725713770674645</v>
+        <v>0.3777073872027898</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09088839009012872</v>
       </c>
       <c r="O4">
-        <v>0.224870596081292</v>
+        <v>0.8060282653213733</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2452376648810244</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5277434061579527</v>
+        <v>0.5077464290148725</v>
       </c>
       <c r="C5">
-        <v>0.2212074178049903</v>
+        <v>0.2856608853374496</v>
       </c>
       <c r="D5">
-        <v>0.006688610428344788</v>
+        <v>0.01904006133981184</v>
       </c>
       <c r="E5">
-        <v>0.03456307711549478</v>
+        <v>0.04373593322359781</v>
       </c>
       <c r="F5">
-        <v>2.618267009646885</v>
+        <v>1.995493049360789</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.03376371322162042</v>
+        <v>0.02844033860041906</v>
       </c>
       <c r="I5">
-        <v>0.04202258841837025</v>
+        <v>0.02976180339117196</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>1.555673200559539</v>
+        <v>1.075710377152554</v>
       </c>
       <c r="L5">
-        <v>0.09367444158797156</v>
+        <v>0.4388180225523044</v>
       </c>
       <c r="M5">
-        <v>0.7414257586665087</v>
+        <v>0.3706225746322502</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.08763297480590637</v>
       </c>
       <c r="O5">
-        <v>0.2160624700918312</v>
+        <v>0.7730625795759636</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2354489323481346</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5236509682382291</v>
+        <v>0.5039026121441168</v>
       </c>
       <c r="C6">
-        <v>0.2203555048145631</v>
+        <v>0.2843459406725231</v>
       </c>
       <c r="D6">
-        <v>0.006754626586110035</v>
+        <v>0.01905073872183749</v>
       </c>
       <c r="E6">
-        <v>0.03438356187789537</v>
+        <v>0.04349187179224501</v>
       </c>
       <c r="F6">
-        <v>2.601891729199266</v>
+        <v>1.985449868466048</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.03407870229367083</v>
+        <v>0.02870662519597489</v>
       </c>
       <c r="I6">
-        <v>0.04252558518187577</v>
+        <v>0.03018236082288706</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>1.5455694432342</v>
+        <v>1.070413787475495</v>
       </c>
       <c r="L6">
-        <v>0.0929268284367808</v>
+        <v>0.4370389112173925</v>
       </c>
       <c r="M6">
-        <v>0.736511678991036</v>
+        <v>0.3685838222140347</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.08700783303372361</v>
       </c>
       <c r="O6">
-        <v>0.214758939141344</v>
+        <v>0.7678016133897358</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2339597813395073</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5497309643984352</v>
+        <v>0.5286443174961732</v>
       </c>
       <c r="C7">
-        <v>0.2304315302746289</v>
+        <v>0.2973162434612391</v>
       </c>
       <c r="D7">
-        <v>0.006982643174749725</v>
+        <v>0.0202385382216832</v>
       </c>
       <c r="E7">
-        <v>0.03609688142464051</v>
+        <v>0.045604414184794</v>
       </c>
       <c r="F7">
-        <v>2.667823818410824</v>
+        <v>2.022375553806626</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.03206784945618302</v>
+        <v>0.02699431426526311</v>
       </c>
       <c r="I7">
-        <v>0.04033397668787586</v>
+        <v>0.02861895431414929</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>1.580081001449955</v>
+        <v>1.084566746182588</v>
       </c>
       <c r="L7">
-        <v>0.09717954493787317</v>
+        <v>0.4400796973775343</v>
       </c>
       <c r="M7">
-        <v>0.7728348756640742</v>
+        <v>0.3752004705064635</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09061409997885761</v>
       </c>
       <c r="O7">
-        <v>0.2251829900338151</v>
+        <v>0.8061500238286499</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2454744326881375</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.665626930353227</v>
+        <v>0.638197821084276</v>
       </c>
       <c r="C8">
-        <v>0.2746183442920085</v>
+        <v>0.3546336646974453</v>
       </c>
       <c r="D8">
-        <v>0.007828988638003409</v>
+        <v>0.02527122815470761</v>
       </c>
       <c r="E8">
-        <v>0.04360251527005587</v>
+        <v>0.05488250002909467</v>
       </c>
       <c r="F8">
-        <v>2.971354002280052</v>
+        <v>2.193467688308544</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.02415034504006353</v>
+        <v>0.02026956066210639</v>
       </c>
       <c r="I8">
-        <v>0.03139246152475295</v>
+        <v>0.02217957984998975</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>1.741086393051148</v>
+        <v>1.15210429409165</v>
       </c>
       <c r="L8">
-        <v>0.1162428283209138</v>
+        <v>0.4548420007069538</v>
       </c>
       <c r="M8">
-        <v>0.9335113865557787</v>
+        <v>0.4080616887684343</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1066924234857183</v>
       </c>
       <c r="O8">
-        <v>0.2709969428139374</v>
+        <v>0.9756483627101602</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2961685232159894</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8952135350020001</v>
+        <v>0.8537816279022081</v>
       </c>
       <c r="C9">
-        <v>0.3630324423223215</v>
+        <v>0.4699761502681952</v>
       </c>
       <c r="D9">
-        <v>0.00928265725593036</v>
+        <v>0.03506846308479084</v>
       </c>
       <c r="E9">
-        <v>0.05845774439978513</v>
+        <v>0.0732196818958748</v>
       </c>
       <c r="F9">
-        <v>3.588636624245282</v>
+        <v>2.541928655403581</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.01246953776886872</v>
+        <v>0.01040139643074172</v>
       </c>
       <c r="I9">
-        <v>0.01763694802032045</v>
+        <v>0.01230176821958917</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>2.070355724403697</v>
+        <v>1.291122844949683</v>
       </c>
       <c r="L9">
-        <v>0.1544259214913524</v>
+        <v>0.4834452928551798</v>
       </c>
       <c r="M9">
-        <v>1.252317624640341</v>
+        <v>0.4821655706144838</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1385793689916923</v>
       </c>
       <c r="O9">
-        <v>0.3611583003700289</v>
+        <v>1.310956513801159</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.3960244941632141</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.068437859167204</v>
+        <v>1.016479725309182</v>
       </c>
       <c r="C10">
-        <v>0.4275302239635153</v>
+        <v>0.5526677792223609</v>
       </c>
       <c r="D10">
-        <v>0.01036065338979597</v>
+        <v>0.04201278192334001</v>
       </c>
       <c r="E10">
-        <v>0.06601032015671038</v>
+        <v>0.08267976995295001</v>
       </c>
       <c r="F10">
-        <v>3.951856695630369</v>
+        <v>2.738280166066076</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.007057386587463466</v>
+        <v>0.005884757863916512</v>
       </c>
       <c r="I10">
-        <v>0.01086323117658594</v>
+        <v>0.007635559166726757</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>2.255315025678613</v>
+        <v>1.360393770495193</v>
       </c>
       <c r="L10">
-        <v>0.1724527973929852</v>
+        <v>0.4908283854218709</v>
       </c>
       <c r="M10">
-        <v>1.490165569224331</v>
+        <v>0.5283698549990063</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1528283714435048</v>
       </c>
       <c r="O10">
-        <v>0.4213130441609252</v>
+        <v>1.559321269590271</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.462408758619496</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.180187806630101</v>
+        <v>1.129678593635759</v>
       </c>
       <c r="C11">
-        <v>0.4226231599636492</v>
+        <v>0.5368604554694514</v>
       </c>
       <c r="D11">
-        <v>0.009362342186825856</v>
+        <v>0.0380135233750778</v>
       </c>
       <c r="E11">
-        <v>0.0412937465584946</v>
+        <v>0.05370249879913302</v>
       </c>
       <c r="F11">
-        <v>3.417008731795022</v>
+        <v>2.376233129988194</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02561239181762787</v>
+        <v>0.0244228540463034</v>
       </c>
       <c r="I11">
-        <v>0.01015306659026827</v>
+        <v>0.007348962420277161</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.92546561589252</v>
+        <v>1.165796878921533</v>
       </c>
       <c r="L11">
-        <v>0.1050010733510049</v>
+        <v>0.4146954841570718</v>
       </c>
       <c r="M11">
-        <v>1.592438986960616</v>
+        <v>0.4601283827790468</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09241229401123263</v>
       </c>
       <c r="O11">
-        <v>0.3876784200928611</v>
+        <v>1.659316473131412</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4242632320054867</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.240867791029018</v>
+        <v>1.194027919343739</v>
       </c>
       <c r="C12">
-        <v>0.4025246981900352</v>
+        <v>0.5041264649390769</v>
       </c>
       <c r="D12">
-        <v>0.008085885239765389</v>
+        <v>0.03278459670930545</v>
       </c>
       <c r="E12">
-        <v>0.02459360354745854</v>
+        <v>0.03346871633904236</v>
       </c>
       <c r="F12">
-        <v>2.947300961110784</v>
+        <v>2.066632049474492</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06484462035156469</v>
+        <v>0.06353219407266408</v>
       </c>
       <c r="I12">
-        <v>0.01012201303428117</v>
+        <v>0.007268626398793998</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.649346284621814</v>
+        <v>1.010712217192967</v>
       </c>
       <c r="L12">
-        <v>0.06300875834047304</v>
+        <v>0.358406718922005</v>
       </c>
       <c r="M12">
-        <v>1.627044812634949</v>
+        <v>0.4008701897529221</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.05620406081603591</v>
       </c>
       <c r="O12">
-        <v>0.3474259054323454</v>
+        <v>1.689793549938031</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3792259076994497</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.263916419504966</v>
+        <v>1.222867162172804</v>
       </c>
       <c r="C13">
-        <v>0.3717232905573553</v>
+        <v>0.458574198920644</v>
       </c>
       <c r="D13">
-        <v>0.006827021271689659</v>
+        <v>0.02703510048272051</v>
       </c>
       <c r="E13">
-        <v>0.01336087021921006</v>
+        <v>0.01909343995305779</v>
       </c>
       <c r="F13">
-        <v>2.478678128021784</v>
+        <v>1.763577275174754</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1217524991401149</v>
+        <v>0.1202024156910824</v>
       </c>
       <c r="I13">
-        <v>0.01106553040822167</v>
+        <v>0.007844997960699374</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>1.381799145996098</v>
+        <v>0.8658111569390456</v>
       </c>
       <c r="L13">
-        <v>0.03778614616500775</v>
+        <v>0.3089474051529706</v>
       </c>
       <c r="M13">
-        <v>1.612244049713439</v>
+        <v>0.3417212410724915</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.03609950160989328</v>
       </c>
       <c r="O13">
-        <v>0.3007895055211023</v>
+        <v>1.669045917944032</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.327271677380196</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.262782855887991</v>
+        <v>1.226767517706719</v>
       </c>
       <c r="C14">
-        <v>0.3459457852545427</v>
+        <v>0.4216528010905733</v>
       </c>
       <c r="D14">
-        <v>0.006012692004780718</v>
+        <v>0.02297360030150486</v>
       </c>
       <c r="E14">
-        <v>0.008835919265672398</v>
+        <v>0.01264488061290603</v>
       </c>
       <c r="F14">
-        <v>2.155085681051759</v>
+        <v>1.556168961329234</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1722071536910335</v>
+        <v>0.1704305915885982</v>
       </c>
       <c r="I14">
-        <v>0.0123181783012436</v>
+        <v>0.008693770797782996</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>1.200468547700353</v>
+        <v>0.7695076884671579</v>
       </c>
       <c r="L14">
-        <v>0.03023916790321879</v>
+        <v>0.2771315453078991</v>
       </c>
       <c r="M14">
-        <v>1.579862603967939</v>
+        <v>0.3010629815354733</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03164082547142399</v>
       </c>
       <c r="O14">
-        <v>0.2659493347881963</v>
+        <v>1.631625258295742</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2885336386376665</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.253851011428651</v>
+        <v>1.219499306356596</v>
       </c>
       <c r="C15">
-        <v>0.3379372003787751</v>
+        <v>0.4104308571434103</v>
       </c>
       <c r="D15">
-        <v>0.005870826479995372</v>
+        <v>0.02197355564690895</v>
       </c>
       <c r="E15">
-        <v>0.008134409902784689</v>
+        <v>0.01151345246068969</v>
       </c>
       <c r="F15">
-        <v>2.068735374325982</v>
+        <v>1.501821330595931</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1852070066760518</v>
+        <v>0.1833368412567182</v>
       </c>
       <c r="I15">
-        <v>0.01302085414863186</v>
+        <v>0.009233441561092626</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>1.152606680127022</v>
+        <v>0.7448607708002868</v>
       </c>
       <c r="L15">
-        <v>0.02961021528409891</v>
+        <v>0.2693516177277075</v>
       </c>
       <c r="M15">
-        <v>1.56178479812192</v>
+        <v>0.2901697612456999</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03171091837710094</v>
       </c>
       <c r="O15">
-        <v>0.2561365526626318</v>
+        <v>1.611912346029641</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2776195230343106</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.172838782265075</v>
+        <v>1.141799454544184</v>
       </c>
       <c r="C16">
-        <v>0.317731615248789</v>
+        <v>0.385733701092505</v>
       </c>
       <c r="D16">
-        <v>0.005742527393493901</v>
+        <v>0.02059684512255444</v>
       </c>
       <c r="E16">
-        <v>0.007647426224159037</v>
+        <v>0.01103683399255218</v>
       </c>
       <c r="F16">
-        <v>2.011596179476399</v>
+        <v>1.477144789917446</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1748156272806511</v>
+        <v>0.1725588760973551</v>
       </c>
       <c r="I16">
-        <v>0.01581742467785574</v>
+        <v>0.01123096579818572</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>1.128296922359596</v>
+        <v>0.7415315261568765</v>
       </c>
       <c r="L16">
-        <v>0.02810654887497011</v>
+        <v>0.2719763872794871</v>
       </c>
       <c r="M16">
-        <v>1.462535151364278</v>
+        <v>0.2839175899730222</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0302938133398829</v>
       </c>
       <c r="O16">
-        <v>0.2414893521017518</v>
+        <v>1.509394613052223</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2615394106934019</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.111492901760727</v>
+        <v>1.08030905034181</v>
       </c>
       <c r="C17">
-        <v>0.3159357867455128</v>
+        <v>0.3863090390521506</v>
       </c>
       <c r="D17">
-        <v>0.006095466897523494</v>
+        <v>0.02165183021742934</v>
       </c>
       <c r="E17">
-        <v>0.009087616465493831</v>
+        <v>0.01342099911256422</v>
       </c>
       <c r="F17">
-        <v>2.133893908368151</v>
+        <v>1.565639643346387</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1382724630181826</v>
+        <v>0.1358388983838665</v>
       </c>
       <c r="I17">
-        <v>0.01736675847590963</v>
+        <v>0.01237693295045972</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>1.20223159660879</v>
+        <v>0.7887310692981657</v>
       </c>
       <c r="L17">
-        <v>0.02910462544013592</v>
+        <v>0.2910601089574243</v>
       </c>
       <c r="M17">
-        <v>1.403853316403996</v>
+        <v>0.2995945788368104</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.02990606514072325</v>
       </c>
       <c r="O17">
-        <v>0.2483732633369122</v>
+        <v>1.450876467121873</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2693273523605697</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.06120654497272</v>
+        <v>1.026990839293461</v>
       </c>
       <c r="C18">
-        <v>0.3287031848857112</v>
+        <v>0.4079001423975228</v>
       </c>
       <c r="D18">
-        <v>0.006785076087432174</v>
+        <v>0.02478939445962425</v>
       </c>
       <c r="E18">
-        <v>0.01524146134290927</v>
+        <v>0.02166718973217918</v>
       </c>
       <c r="F18">
-        <v>2.452701266598893</v>
+        <v>1.779889625615468</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.08545870383746035</v>
+        <v>0.08307067396560797</v>
       </c>
       <c r="I18">
-        <v>0.01742333584699729</v>
+        <v>0.0123518047678548</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>1.388454296435199</v>
+        <v>0.8959851643994483</v>
       </c>
       <c r="L18">
-        <v>0.04134775679658986</v>
+        <v>0.331026460897732</v>
       </c>
       <c r="M18">
-        <v>1.372351400723403</v>
+        <v>0.3396023125615315</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.03890726393486155</v>
       </c>
       <c r="O18">
-        <v>0.2752080164479054</v>
+        <v>1.42258709735458</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2993740171490344</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.022633391341685</v>
+        <v>0.9837708592821173</v>
       </c>
       <c r="C19">
-        <v>0.3549135460801551</v>
+        <v>0.4477157416944522</v>
       </c>
       <c r="D19">
-        <v>0.008166759898458054</v>
+        <v>0.03034982030664679</v>
       </c>
       <c r="E19">
-        <v>0.02929137016809946</v>
+        <v>0.03896916579108911</v>
       </c>
       <c r="F19">
-        <v>2.915494041328259</v>
+        <v>2.083981078263548</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.0389102093303535</v>
+        <v>0.03677505352500532</v>
       </c>
       <c r="I19">
-        <v>0.0168203821865065</v>
+        <v>0.01205824609728356</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>1.655858738309135</v>
+        <v>1.044843965424519</v>
       </c>
       <c r="L19">
-        <v>0.07502547366261325</v>
+        <v>0.3853421850133998</v>
       </c>
       <c r="M19">
-        <v>1.366179516877565</v>
+        <v>0.3965850477387036</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.06742507461513725</v>
       </c>
       <c r="O19">
-        <v>0.3186422802150517</v>
+        <v>1.421551563019818</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.3478053532504148</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.020527217982334</v>
+        <v>0.9718989777993556</v>
       </c>
       <c r="C20">
-        <v>0.4143249066541443</v>
+        <v>0.5342626224548326</v>
       </c>
       <c r="D20">
-        <v>0.01077468818911598</v>
+        <v>0.04147865939122397</v>
       </c>
       <c r="E20">
-        <v>0.06430356805001836</v>
+        <v>0.08040607908577257</v>
       </c>
       <c r="F20">
-        <v>3.80631767501967</v>
+        <v>2.653509807268293</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.008355272107621659</v>
+        <v>0.006953892100451942</v>
       </c>
       <c r="I20">
-        <v>0.01343726412761903</v>
+        <v>0.009819937657291611</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823846983</v>
       </c>
       <c r="K20">
-        <v>2.170068465093777</v>
+        <v>1.320174940233898</v>
       </c>
       <c r="L20">
-        <v>0.1663030646162724</v>
+        <v>0.4810427351093338</v>
       </c>
       <c r="M20">
-        <v>1.429404673394259</v>
+        <v>0.5074112732668965</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.147962532535459</v>
       </c>
       <c r="O20">
-        <v>0.4065171694196721</v>
+        <v>1.495492159965011</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4457497122270482</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.148664273560428</v>
+        <v>1.09045609776382</v>
       </c>
       <c r="C21">
-        <v>0.4707407800054</v>
+        <v>0.608397511385391</v>
       </c>
       <c r="D21">
-        <v>0.01186816260602086</v>
+        <v>0.0481631568573917</v>
       </c>
       <c r="E21">
-        <v>0.07599065557311491</v>
+        <v>0.09452033675625771</v>
       </c>
       <c r="F21">
-        <v>4.220196509702049</v>
+        <v>2.891354569299438</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.004416745944863631</v>
+        <v>0.00364077369078708</v>
       </c>
       <c r="I21">
-        <v>0.008788249248508961</v>
+        <v>0.006614776320237326</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>2.39226307438436</v>
+        <v>1.41732954637142</v>
       </c>
       <c r="L21">
-        <v>0.1962965581833558</v>
+        <v>0.5020728103594507</v>
       </c>
       <c r="M21">
-        <v>1.614528237585773</v>
+        <v>0.5613214529908248</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1732764367717721</v>
       </c>
       <c r="O21">
-        <v>0.4639972042250022</v>
+        <v>1.689627744050654</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5093617173259943</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.235792288684422</v>
+        <v>1.171215578015591</v>
       </c>
       <c r="C22">
-        <v>0.5045035684425727</v>
+        <v>0.6528675365465801</v>
       </c>
       <c r="D22">
-        <v>0.01218682337928456</v>
+        <v>0.05157261220063702</v>
       </c>
       <c r="E22">
-        <v>0.08159864327302202</v>
+        <v>0.101411482181593</v>
       </c>
       <c r="F22">
-        <v>4.469526173403779</v>
+        <v>3.033071280695935</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.002657890938296603</v>
+        <v>0.002179178893614298</v>
       </c>
       <c r="I22">
-        <v>0.006131298979263455</v>
+        <v>0.004654225473968765</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>2.527552933477253</v>
+        <v>1.475820778943699</v>
       </c>
       <c r="L22">
-        <v>0.211262439270385</v>
+        <v>0.5135234109422768</v>
       </c>
       <c r="M22">
-        <v>1.735413266404265</v>
+        <v>0.595622107509449</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1855427866189103</v>
       </c>
       <c r="O22">
-        <v>0.497576232198675</v>
+        <v>1.815936266960193</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5465890802820041</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.190200645212229</v>
+        <v>1.128862756781984</v>
       </c>
       <c r="C23">
-        <v>0.4848316464765219</v>
+        <v>0.6275717059326382</v>
       </c>
       <c r="D23">
-        <v>0.01173709941198098</v>
+        <v>0.04921495723227309</v>
       </c>
       <c r="E23">
-        <v>0.07841760742128301</v>
+        <v>0.09756323334804762</v>
       </c>
       <c r="F23">
-        <v>4.354344576409176</v>
+        <v>2.969236565383653</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.003523918876421117</v>
+        <v>0.002900185050859871</v>
       </c>
       <c r="I23">
-        <v>0.007122540755318596</v>
+        <v>0.005239100860833013</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>2.468736264867999</v>
+        <v>1.452637130070769</v>
       </c>
       <c r="L23">
-        <v>0.2036408058543557</v>
+        <v>0.510252566409612</v>
       </c>
       <c r="M23">
-        <v>1.670017086296724</v>
+        <v>0.5804437257377444</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.179273562287861</v>
       </c>
       <c r="O23">
-        <v>0.4791090722638884</v>
+        <v>1.747788778964804</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5262497651194238</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.0168994323042</v>
+        <v>0.9676197121428061</v>
       </c>
       <c r="C24">
-        <v>0.4143776208793213</v>
+        <v>0.5359594038503985</v>
       </c>
       <c r="D24">
-        <v>0.01052280638156589</v>
+        <v>0.04132152100977038</v>
       </c>
       <c r="E24">
-        <v>0.06684078666406279</v>
+        <v>0.08342082891725511</v>
       </c>
       <c r="F24">
-        <v>3.8908613811534</v>
+        <v>2.709063715760763</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.00803236078892311</v>
+        <v>0.006668347911832906</v>
       </c>
       <c r="I24">
-        <v>0.01277150142461103</v>
+        <v>0.009102092941904338</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555349711</v>
       </c>
       <c r="K24">
-        <v>2.224443100328173</v>
+        <v>1.351470507148179</v>
       </c>
       <c r="L24">
-        <v>0.1744570794908427</v>
+        <v>0.4925151896101809</v>
       </c>
       <c r="M24">
-        <v>1.425904797587691</v>
+        <v>0.5193406693810232</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1552213120679582</v>
       </c>
       <c r="O24">
-        <v>0.4105261774797597</v>
+        <v>1.492641204686521</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4504465125580879</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8315426245436583</v>
+        <v>0.7943159818602226</v>
       </c>
       <c r="C25">
-        <v>0.340996595186482</v>
+        <v>0.4403703874255882</v>
       </c>
       <c r="D25">
-        <v>0.009274365616214197</v>
+        <v>0.03311052596850317</v>
       </c>
       <c r="E25">
-        <v>0.05465623277978082</v>
+        <v>0.06845245586972126</v>
       </c>
       <c r="F25">
-        <v>3.394703913405863</v>
+        <v>2.429841760409502</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.01522810347256776</v>
+        <v>0.01271980979225479</v>
       </c>
       <c r="I25">
-        <v>0.02144695889463577</v>
+        <v>0.01523149026853421</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.0759519602266292</v>
       </c>
       <c r="K25">
-        <v>1.961555969984133</v>
+        <v>1.241644829280283</v>
       </c>
       <c r="L25">
-        <v>0.1434896661550624</v>
+        <v>0.4716022590908082</v>
       </c>
       <c r="M25">
-        <v>1.166629265722491</v>
+        <v>0.4568683792778785</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1295195651252143</v>
       </c>
       <c r="O25">
-        <v>0.3374098693110312</v>
+        <v>1.220728764776908</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.3695402842864013</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
